--- a/data_sets/Power/ODO_INPUT.xlsx
+++ b/data_sets/Power/ODO_INPUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hlh/Dropbox/Work/Collaborations/Harsha/Networked_Microgrid/private-gravity/data_sets/Power/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hlh/Dropbox/Work/Collaborations/Harsha/Networked_Microgrid/ODO/data_sets/Power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA1B75E-9523-C942-9167-2E7A6AC1A65A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACCAA2-F6F9-4B40-9CE9-B3E3010D7DF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="938" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="938" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunSettings" sheetId="107" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="DieselInvest" sheetId="71" r:id="rId3"/>
     <sheet name="BattInvest" sheetId="193" r:id="rId4"/>
     <sheet name="BranchInvest" sheetId="215" r:id="rId5"/>
-    <sheet name="SwitchInvest" sheetId="219" r:id="rId6"/>
-    <sheet name="PvWindParams" sheetId="72" r:id="rId7"/>
-    <sheet name="BattParams" sheetId="192" r:id="rId8"/>
-    <sheet name="DieselParams" sheetId="70" r:id="rId9"/>
-    <sheet name="CableParams" sheetId="126" r:id="rId10"/>
+    <sheet name="CableParams" sheetId="126" r:id="rId6"/>
+    <sheet name="SwitchInvest" sheetId="219" r:id="rId7"/>
+    <sheet name="PvWindParams" sheetId="72" r:id="rId8"/>
+    <sheet name="BattParams" sheetId="192" r:id="rId9"/>
+    <sheet name="DieselParams" sheetId="70" r:id="rId10"/>
     <sheet name="SwitchParams" sheetId="220" r:id="rId11"/>
     <sheet name="CableLen" sheetId="120" r:id="rId12"/>
     <sheet name="MonthSeason" sheetId="58" r:id="rId13"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="284">
   <si>
     <t>January</t>
   </si>
@@ -886,6 +886,18 @@
   <si>
     <t>Capcost ($/kW)</t>
   </si>
+  <si>
+    <t>phases (1,2,3)</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
 </sst>
 </file>
 
@@ -1411,7 +1423,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1465,6 +1477,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1512,9 +1527,21 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="10">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1547,8 +1574,6 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1559,38 +1584,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1648,8 +1641,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2017,973 +2010,2367 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr codeName="Sheet68"/>
-  <dimension ref="A1:H61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="7"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1"/>
+    <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0.46458333333333296</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1.3937499999999989</v>
-      </c>
-      <c r="F2" s="16">
-        <v>220</v>
-      </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="18">
+        <v>65</v>
+      </c>
+      <c r="D2" s="19">
+        <v>6440</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5</v>
+      </c>
+      <c r="I2" s="27">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="J2" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="18">
+        <v>15</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.46458333333333296</v>
-      </c>
-      <c r="E3" s="17">
-        <v>1.3937499999999989</v>
-      </c>
-      <c r="F3" s="16">
-        <v>34.918144280588599</v>
-      </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="18">
+        <v>75</v>
+      </c>
+      <c r="D3" s="19">
+        <v>5761.407408</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="J3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="18">
+        <v>15</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0.343055555555556</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1.0291666666666681</v>
-      </c>
-      <c r="F4" s="16">
-        <v>40.5299888971117</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="18">
+        <v>200</v>
+      </c>
+      <c r="D4" s="19">
+        <v>6300</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J4" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="18">
+        <v>15</v>
+      </c>
+      <c r="N4" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.23888888888888898</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.71666666666666701</v>
-      </c>
-      <c r="F5" s="16">
-        <v>51.545832033249795</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="18">
+        <v>250</v>
+      </c>
+      <c r="D5" s="19">
+        <v>5227.7333339999996</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.27</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="18">
+        <v>15</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0.171527777777778</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0.51458333333333406</v>
-      </c>
-      <c r="F6" s="16">
-        <v>57.157676649772895</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="18">
+        <v>250</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5438</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="18">
+        <v>15</v>
+      </c>
+      <c r="N6" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0.13611111111111099</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0.40833333333333299</v>
-      </c>
-      <c r="F7" s="16">
-        <v>64.432290041562197</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18">
+        <v>300</v>
+      </c>
+      <c r="D7" s="19">
+        <v>20600</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.42727272700000002</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="18">
+        <v>20</v>
+      </c>
+      <c r="N7" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.111805555555556</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.33541666666666803</v>
-      </c>
-      <c r="F8" s="16">
-        <v>71.914749530259797</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="18">
+        <v>400</v>
+      </c>
+      <c r="D8" s="19">
+        <v>14600</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.38181818200000001</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="18">
+        <v>20</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D9" s="17">
-        <v>8.9583333333333307E-2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.26874999999999993</v>
-      </c>
-      <c r="F9" s="16">
-        <v>82.099208278764806</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="20">
+        <v>500</v>
+      </c>
+      <c r="D9" s="21">
+        <v>4617.6000000000004</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="20">
+        <v>15</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D10" s="17">
-        <v>6.8749999999999992E-2</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0.20624999999999999</v>
-      </c>
-      <c r="F10" s="16">
-        <v>92.491513124177999</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="20">
+        <v>750</v>
+      </c>
+      <c r="D10" s="21">
+        <v>4400.5970139999999</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="20">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D11" s="17">
-        <v>5.6597222222222202E-2</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0.16979166666666662</v>
-      </c>
-      <c r="F11" s="16">
-        <v>104.962278938674</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1600</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <v>9.75E-3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>9.75E-3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="20">
+        <v>20</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D12" s="17">
-        <v>4.5833333333333302E-2</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.1374999999999999</v>
-      </c>
-      <c r="F12" s="16">
-        <v>117.43304475317001</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="21">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>5</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="20">
+        <v>15</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1.06944444444444</v>
-      </c>
-      <c r="E13" s="17">
-        <v>3.2083333333333197</v>
-      </c>
-      <c r="F13" s="16">
-        <v>22.447378466092598</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="21">
+        <v>12820</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="20">
+        <v>20</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0.77291666666666703</v>
-      </c>
-      <c r="E14" s="17">
-        <v>2.318750000000001</v>
-      </c>
-      <c r="F14" s="16">
-        <v>26.3964543073497</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1400</v>
+      </c>
+      <c r="D14" s="21">
+        <v>9200</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0.42727272700000002</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="20">
+        <v>20</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0.57083333333333297</v>
-      </c>
-      <c r="E15" s="17">
-        <v>1.712499999999999</v>
-      </c>
-      <c r="F15" s="16">
-        <v>30.761222342423299</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="21">
+        <v>4223.0867926000001</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>8.1250000000000003E-3</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8.1250000000000003E-3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="20">
+        <v>20</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0.39513888888888904</v>
-      </c>
-      <c r="E16" s="17">
-        <v>1.1854166666666672</v>
-      </c>
-      <c r="F16" s="16">
-        <v>36.996605249671205</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="20">
+        <v>2800</v>
+      </c>
+      <c r="D16" s="21">
+        <v>8300</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="20">
+        <v>20</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.28541666666666698</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0.85625000000000095</v>
-      </c>
-      <c r="F17" s="16">
-        <v>43.647680350735698</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="20">
+        <v>3500</v>
+      </c>
+      <c r="D17" s="21">
+        <v>6144.7336560000003</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="20">
+        <v>20</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="20">
+        <v>3500</v>
+      </c>
+      <c r="D18" s="21">
+        <v>6309.1788740000002</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="20">
+        <v>20</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="20">
+        <v>5000</v>
+      </c>
+      <c r="D19" s="21">
+        <v>3074.0210514</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="H19" s="6">
+        <v>4</v>
+      </c>
+      <c r="I19" s="29">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="20">
+        <v>20</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="20">
+        <v>5000</v>
+      </c>
+      <c r="D20" s="21">
+        <v>3890.9917599999999</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2</v>
+      </c>
+      <c r="I20" s="29">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="J20" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="20">
+        <v>20</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="20">
+        <v>5000</v>
+      </c>
+      <c r="D21" s="21">
+        <v>3984.1805920000002</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="J21" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="20">
+        <v>20</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="18">
+        <v>7500</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3754.9145720000001</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="27">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="18">
+        <v>20</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="18">
+        <v>7500</v>
+      </c>
+      <c r="D23" s="19">
+        <v>3841.2410060000002</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>5.3E-3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="18">
+        <v>20</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="18">
+        <v>15000</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2887.7753739999998</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>3.65E-3</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3.65E-3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="27">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="J24" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="18">
+        <v>20</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="18">
+        <v>15000</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2952.9811180000002</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>3.7750000000000001E-3</v>
+      </c>
+      <c r="G25" s="7">
+        <v>3.7750000000000001E-3</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="J25" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="18">
+        <v>20</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="18">
+        <v>25000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2377.342654</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="G26" s="7">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="27">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="J26" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="18">
+        <v>20</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="18">
+        <v>25000</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2428.5374040000002</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
+      <c r="I27" s="27">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="J27" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="18">
+        <v>20</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="18">
+        <v>65</v>
+      </c>
+      <c r="D28" s="19">
+        <v>5474</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="G28" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="J28" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="18">
+        <v>15</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="18">
+        <v>75</v>
+      </c>
+      <c r="D29" s="19">
+        <v>4460.4444439999997</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4</v>
+      </c>
+      <c r="I29" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="J29" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="18">
+        <v>15</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="18">
+        <v>200</v>
+      </c>
+      <c r="D30" s="19">
+        <v>5355</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G30" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="27">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J30" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="18">
+        <v>15</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="18">
+        <v>250</v>
+      </c>
+      <c r="D31" s="19">
+        <v>4146.1333340000001</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0.27</v>
+      </c>
+      <c r="J31" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="18">
+        <v>15</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="18">
+        <v>250</v>
+      </c>
+      <c r="D32" s="19">
+        <v>4622.3</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G32" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="J32" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="18">
+        <v>15</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="18">
         <v>100</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0.225694444444444</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.67708333333333204</v>
-      </c>
-      <c r="F18" s="16">
-        <v>49.467371064167097</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.18402777777777798</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.55208333333333393</v>
-      </c>
-      <c r="F19" s="16">
-        <v>55.079215680690297</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0.147222222222222</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.44166666666666599</v>
-      </c>
-      <c r="F20" s="16">
-        <v>61.938136878663002</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0.11319444444444401</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0.33958333333333202</v>
-      </c>
-      <c r="F21" s="16">
-        <v>70.875519045718406</v>
-      </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D22" s="17">
-        <v>9.0972222222222204E-2</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0.27291666666666659</v>
-      </c>
-      <c r="F22" s="16">
-        <v>79.605055115865596</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D23" s="17">
-        <v>7.1805555555555595E-2</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0.21541666666666678</v>
-      </c>
-      <c r="F23" s="16">
-        <v>90.4130521550954</v>
-      </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D24" s="17">
-        <v>7.1805555555555595E-2</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0.21541666666666678</v>
-      </c>
-      <c r="F24" s="16">
-        <v>90.4130521550954</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D25" s="17">
-        <v>7.1805555555555595E-2</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0.21541666666666678</v>
-      </c>
-      <c r="F25" s="16">
-        <v>90.4130521550954</v>
-      </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D26" s="17">
-        <v>7.1805555555555595E-2</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0.21541666666666678</v>
-      </c>
-      <c r="F26" s="16">
-        <v>90.4130521550954</v>
-      </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D27" s="17">
-        <v>7.1805555555555595E-2</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0.21541666666666678</v>
-      </c>
-      <c r="F27" s="16">
-        <v>90.4130521550954</v>
-      </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D28" s="17">
-        <v>7.1805555555555595E-2</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0.21541666666666678</v>
-      </c>
-      <c r="F28" s="16">
-        <v>90.4130521550954</v>
-      </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D29" s="17">
-        <v>7.1805555555555595E-2</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0.21541666666666678</v>
-      </c>
-      <c r="F29" s="16">
-        <v>90.4130521550954</v>
-      </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D30" s="17">
-        <v>7.1805555555555595E-2</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0.21541666666666678</v>
-      </c>
-      <c r="F30" s="16">
-        <v>90.4130521550954</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="17">
-        <v>85000</v>
-      </c>
-      <c r="D31" s="17">
-        <v>7.1805555555555595E-2</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0.21541666666666678</v>
-      </c>
-      <c r="F31" s="16">
-        <v>90.4130521550954</v>
-      </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="16"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="16"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="16"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="16"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="16"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="16"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="16"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="16"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="16"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="17"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="16"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="16"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="17"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="16"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="16"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="16"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="16"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="16"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="16"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="17"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="16"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="17"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="16"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="17"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="16"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="17"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="16"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="17"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="16"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="17"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="16"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="17"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="16"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="17"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="16"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="17"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="16"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="17"/>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="G33" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="27">
+        <v>0.42727272700000002</v>
+      </c>
+      <c r="J33" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="18">
+        <v>20</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="18">
+        <v>400</v>
+      </c>
+      <c r="D34" s="19">
+        <v>14000</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="27">
+        <v>0.38181818200000001</v>
+      </c>
+      <c r="J34" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="18">
+        <v>20</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="18">
+        <v>500</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3628.114286</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="J35" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="18">
+        <v>15</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="18">
+        <v>750</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3504.1791039999998</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4</v>
+      </c>
+      <c r="I36" s="27">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J36" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="18">
+        <v>20</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3042</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G37" s="7">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="27">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J37" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="18">
+        <v>20</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="19">
+        <v>4250</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G38" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5</v>
+      </c>
+      <c r="I38" s="27">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J38" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="18">
+        <v>15</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>12320</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="27">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="J39" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="18">
+        <v>20</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="18">
+        <v>1400</v>
+      </c>
+      <c r="D40" s="19">
+        <v>8800</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="27">
+        <v>0.42727272700000002</v>
+      </c>
+      <c r="J40" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="18">
+        <v>20</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2500</v>
+      </c>
+      <c r="D41" s="19">
+        <v>2568.6037740000002</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G41" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4</v>
+      </c>
+      <c r="I41" s="27">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J41" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="18">
+        <v>20</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2800</v>
+      </c>
+      <c r="D42" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="27">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="J42" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="18">
+        <v>20</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="18">
+        <v>3500</v>
+      </c>
+      <c r="D43" s="19">
+        <v>5048.4322039999997</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G43" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H43" s="7">
+        <v>2</v>
+      </c>
+      <c r="I43" s="27">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="J43" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L43" s="18">
+        <v>20</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="18">
+        <v>4000</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0</v>
+      </c>
+      <c r="E44" s="19">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="G44" s="7">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="H44" s="7">
+        <v>4</v>
+      </c>
+      <c r="I44" s="27">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J44" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="18">
+        <v>20</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="18">
+        <v>5000</v>
+      </c>
+      <c r="D45" s="19">
+        <v>3269.7328779999998</v>
+      </c>
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="G45" s="7">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="H45" s="7">
+        <v>2</v>
+      </c>
+      <c r="I45" s="27">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="J45" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="18">
+        <v>20</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="18">
+        <v>7500</v>
+      </c>
+      <c r="D46" s="19">
+        <v>3179.4050259999999</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>4.45E-3</v>
+      </c>
+      <c r="G46" s="7">
+        <v>4.45E-3</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2</v>
+      </c>
+      <c r="I46" s="27">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="J46" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L46" s="18">
+        <v>20</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="18">
+        <v>15000</v>
+      </c>
+      <c r="D47" s="19">
+        <v>2453.070416</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="G47" s="7">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2</v>
+      </c>
+      <c r="I47" s="27">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="J47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L47" s="18">
+        <v>20</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="18">
+        <v>25000</v>
+      </c>
+      <c r="D48" s="19">
+        <v>2036.044326</v>
+      </c>
+      <c r="E48" s="19">
+        <v>0</v>
+      </c>
+      <c r="F48" s="18">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="G48" s="7">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2</v>
+      </c>
+      <c r="I48" s="27">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="J48" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="18">
+        <v>20</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="18">
+        <v>25000</v>
+      </c>
+      <c r="D49" s="19">
+        <v>2036.044326</v>
+      </c>
+      <c r="E49" s="19">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="G49" s="8">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="H49" s="8">
+        <v>2</v>
+      </c>
+      <c r="I49" s="27">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="J49" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="18">
+        <v>20</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="18">
+        <v>25000</v>
+      </c>
+      <c r="D50" s="19">
+        <v>2036.044326</v>
+      </c>
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="G50" s="8">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="H50" s="8">
+        <v>2</v>
+      </c>
+      <c r="I50" s="27">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="J50" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="18">
+        <v>20</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="18">
+        <v>25000</v>
+      </c>
+      <c r="D51" s="19">
+        <v>2036.044326</v>
+      </c>
+      <c r="E51" s="19">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="G51" s="8">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="H51" s="8">
+        <v>2</v>
+      </c>
+      <c r="I51" s="27">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="J51" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="18">
+        <v>20</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="22">
+        <v>250</v>
+      </c>
+      <c r="D52" s="23">
+        <v>1884</v>
+      </c>
+      <c r="E52" s="23">
+        <v>0</v>
+      </c>
+      <c r="F52" s="22">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H52" s="9">
+        <v>1</v>
+      </c>
+      <c r="I52" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="J52" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="22">
+        <v>20</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="22">
+        <v>100</v>
+      </c>
+      <c r="D53" s="23">
+        <v>2300</v>
+      </c>
+      <c r="E53" s="23">
+        <v>0</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H53" s="9">
+        <v>1</v>
+      </c>
+      <c r="I53" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="J53" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="22">
+        <v>20</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="22">
+        <v>10</v>
+      </c>
+      <c r="D54" s="23">
+        <v>2527</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1</v>
+      </c>
+      <c r="I54" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="J54" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="22">
+        <v>20</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="22">
+        <v>5</v>
+      </c>
+      <c r="D55" s="23">
+        <v>3946</v>
+      </c>
+      <c r="E55" s="23">
+        <v>0</v>
+      </c>
+      <c r="F55" s="22">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1</v>
+      </c>
+      <c r="I55" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="J55" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="L55" s="22">
+        <v>20</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="22">
+        <v>250</v>
+      </c>
+      <c r="D56" s="23">
+        <v>2219</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0</v>
+      </c>
+      <c r="F56" s="22">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1</v>
+      </c>
+      <c r="I56" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="J56" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K56" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="L56" s="22">
+        <v>20</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="22">
+        <v>100</v>
+      </c>
+      <c r="D57" s="23">
+        <v>3140</v>
+      </c>
+      <c r="E57" s="23">
+        <v>0</v>
+      </c>
+      <c r="F57" s="22">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1</v>
+      </c>
+      <c r="I57" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="J57" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K57" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="L57" s="22">
+        <v>20</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2992,10 +4379,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A884471B-040A-DD46-A6A7-585574DF0DF4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3008,7 +4395,7 @@
     <col min="6" max="16384" width="8.83203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>227</v>
       </c>
@@ -3025,7 +4412,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>228</v>
       </c>
@@ -3041,8 +4428,11 @@
       <c r="E2" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>229</v>
       </c>
@@ -3058,8 +4448,11 @@
       <c r="E3" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>230</v>
       </c>
@@ -3075,8 +4468,11 @@
       <c r="E4" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>231</v>
       </c>
@@ -3091,6 +4487,9 @@
       </c>
       <c r="E5" s="36">
         <v>0</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -8452,7 +9851,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -9681,12 +11080,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:E18">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:E36">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36626,7 +38025,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:I897">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38290,12 +39689,12 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="36.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="8"/>
   </cols>
@@ -39384,7 +40783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39393,6 +40792,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr codeName="Sheet68"/>
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.46458333333333296</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1.3937499999999989</v>
+      </c>
+      <c r="F2" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.46458333333333296</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1.3937499999999989</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.34918144280588598</v>
+      </c>
+      <c r="G3" s="47">
+        <v>2</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.343055555555556</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1.0291666666666681</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.40529988897111702</v>
+      </c>
+      <c r="G4" s="47">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.23888888888888898</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.71666666666666701</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.51545832033249794</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.171527777777778</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.51458333333333406</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.57157676649772893</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.13611111111111099</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.40833333333333299</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.64432290041562201</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.111805555555556</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.33541666666666803</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.71914749530259803</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D9" s="17">
+        <v>8.9583333333333307E-2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.26874999999999993</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.82099208278764813</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D10" s="17">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.92491513124178004</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5.6597222222222202E-2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.16979166666666662</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1.04962278938674</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D12" s="17">
+        <v>4.5833333333333302E-2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.1374999999999999</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1.1743304475317</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1.06944444444444</v>
+      </c>
+      <c r="E13" s="17">
+        <v>3.2083333333333197</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.22447378466092599</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.77291666666666703</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2.318750000000001</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.26396454307349698</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.57083333333333297</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.712499999999999</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.307612223424233</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.39513888888888904</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1.1854166666666672</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.36996605249671205</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.28541666666666698</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.85625000000000095</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.43647680350735696</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.225694444444444</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.67708333333333204</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.49467371064167098</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.18402777777777798</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.55208333333333393</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.55079215680690297</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.147222222222222</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.44166666666666599</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.61938136878663008</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.11319444444444401</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.33958333333333202</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.70875519045718405</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D22" s="17">
+        <v>9.0972222222222204E-2</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.27291666666666659</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.79605055115865597</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D23" s="17">
+        <v>7.1805555555555595E-2</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.21541666666666678</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.90413052155095397</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D24" s="17">
+        <v>7.1805555555555595E-2</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.21541666666666678</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.90413052155095397</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D25" s="17">
+        <v>7.1805555555555595E-2</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.21541666666666678</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.90413052155095397</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D26" s="17">
+        <v>7.1805555555555595E-2</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.21541666666666678</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.90413052155095397</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D27" s="17">
+        <v>7.1805555555555595E-2</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.21541666666666678</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.90413052155095397</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D28" s="17">
+        <v>7.1805555555555595E-2</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.21541666666666678</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.90413052155095397</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D29" s="17">
+        <v>7.1805555555555595E-2</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.21541666666666678</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.90413052155095397</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D30" s="17">
+        <v>7.1805555555555595E-2</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.21541666666666678</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.90413052155095397</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="17">
+        <v>85000</v>
+      </c>
+      <c r="D31" s="17">
+        <v>7.1805555555555595E-2</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.21541666666666678</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0.90413052155095397</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="16"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="16"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="16"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="16"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="16"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="16"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="16"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="16"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="16"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="16"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="16"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="16"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="16"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="16"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="16"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="16"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="16"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="16"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="16"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="16"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="16"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="16"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="16"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="16"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="16"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="16"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="16"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="16"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EF1375-0CD9-2045-B06A-CF67F22B3367}">
   <dimension ref="A1:U21"/>
   <sheetViews>
@@ -40486,7 +42952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:U21 R2:U17">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40499,7 +42965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G11"/>
@@ -40593,7 +43059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:N6"/>
@@ -40878,2256 +43344,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="7"/>
-    <col min="4" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="18">
-        <v>65</v>
-      </c>
-      <c r="D2" s="19">
-        <v>6440</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>7.2500000000000004E-3</v>
-      </c>
-      <c r="G2" s="7">
-        <v>7.2500000000000004E-3</v>
-      </c>
-      <c r="H2" s="7">
-        <v>5</v>
-      </c>
-      <c r="I2" s="27">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="J2" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L2" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="18">
-        <v>75</v>
-      </c>
-      <c r="D3" s="19">
-        <v>5761.407408</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1.2749999999999999E-2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.2749999999999999E-2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>4</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0.26</v>
-      </c>
-      <c r="J3" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="18">
-        <v>15</v>
-      </c>
-      <c r="N3" s="36"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="18">
-        <v>200</v>
-      </c>
-      <c r="D4" s="19">
-        <v>6300</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="G4" s="7">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="J4" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="18">
-        <v>15</v>
-      </c>
-      <c r="N4" s="36"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="18">
-        <v>250</v>
-      </c>
-      <c r="D5" s="19">
-        <v>5227.7333339999996</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0.27</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="18">
-        <v>15</v>
-      </c>
-      <c r="N5" s="36"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="18">
-        <v>250</v>
-      </c>
-      <c r="D6" s="19">
-        <v>5438</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="J6" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="18">
-        <v>15</v>
-      </c>
-      <c r="N6" s="36"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="18">
-        <v>300</v>
-      </c>
-      <c r="D7" s="19">
-        <v>20600</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0.42727272700000002</v>
-      </c>
-      <c r="J7" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="18">
-        <v>20</v>
-      </c>
-      <c r="N7" s="36"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="18">
-        <v>400</v>
-      </c>
-      <c r="D8" s="19">
-        <v>14600</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0.38181818200000001</v>
-      </c>
-      <c r="J8" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="18">
-        <v>20</v>
-      </c>
-      <c r="N8" s="36"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="20">
-        <v>500</v>
-      </c>
-      <c r="D9" s="21">
-        <v>4617.6000000000004</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
-        <v>1.0749999999999999E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1.0749999999999999E-2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>4</v>
-      </c>
-      <c r="I9" s="29">
-        <v>0.33</v>
-      </c>
-      <c r="J9" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="20">
-        <v>15</v>
-      </c>
-      <c r="N9" s="36"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="20">
-        <v>750</v>
-      </c>
-      <c r="D10" s="21">
-        <v>4400.5970139999999</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1.0749999999999999E-2</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1.0749999999999999E-2</v>
-      </c>
-      <c r="H10" s="6">
-        <v>4</v>
-      </c>
-      <c r="I10" s="29">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="J10" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="20">
-        <v>20</v>
-      </c>
-      <c r="N10" s="36"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="20">
-        <v>1600</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <v>9.75E-3</v>
-      </c>
-      <c r="G11" s="6">
-        <v>9.75E-3</v>
-      </c>
-      <c r="H11" s="6">
-        <v>4</v>
-      </c>
-      <c r="I11" s="29">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="20">
-        <v>20</v>
-      </c>
-      <c r="N11" s="36"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="G12" s="6">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="H12" s="6">
-        <v>5</v>
-      </c>
-      <c r="I12" s="29">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="J12" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="20">
-        <v>15</v>
-      </c>
-      <c r="N12" s="36"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="20">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="21">
-        <v>12820</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <v>1.7749999999999998E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1.7749999999999998E-2</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29">
-        <v>0.42730000000000001</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="20">
-        <v>20</v>
-      </c>
-      <c r="N13" s="36"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="20">
-        <v>1400</v>
-      </c>
-      <c r="D14" s="21">
-        <v>9200</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <v>1.7749999999999998E-2</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1.7749999999999998E-2</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29">
-        <v>0.42727272700000002</v>
-      </c>
-      <c r="J14" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="20">
-        <v>20</v>
-      </c>
-      <c r="N14" s="36"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="20">
-        <v>2500</v>
-      </c>
-      <c r="D15" s="21">
-        <v>4223.0867926000001</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20">
-        <v>8.1250000000000003E-3</v>
-      </c>
-      <c r="G15" s="6">
-        <v>8.1250000000000003E-3</v>
-      </c>
-      <c r="H15" s="6">
-        <v>4</v>
-      </c>
-      <c r="I15" s="29">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="J15" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="20">
-        <v>20</v>
-      </c>
-      <c r="N15" s="36"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="20">
-        <v>2800</v>
-      </c>
-      <c r="D16" s="21">
-        <v>8300</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20">
-        <v>1.7749999999999998E-2</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1.7749999999999998E-2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="29">
-        <v>0.42730000000000001</v>
-      </c>
-      <c r="J16" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="20">
-        <v>20</v>
-      </c>
-      <c r="N16" s="36"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="20">
-        <v>3500</v>
-      </c>
-      <c r="D17" s="21">
-        <v>6144.7336560000003</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
-      </c>
-      <c r="F17" s="20">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G17" s="6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H17" s="6">
-        <v>2</v>
-      </c>
-      <c r="I17" s="29">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="J17" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="20">
-        <v>20</v>
-      </c>
-      <c r="N17" s="36"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="20">
-        <v>3500</v>
-      </c>
-      <c r="D18" s="21">
-        <v>6309.1788740000002</v>
-      </c>
-      <c r="E18" s="21">
-        <v>0</v>
-      </c>
-      <c r="F18" s="20">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="G18" s="6">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-      <c r="I18" s="29">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="J18" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="20">
-        <v>20</v>
-      </c>
-      <c r="N18" s="36"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="20">
-        <v>5000</v>
-      </c>
-      <c r="D19" s="21">
-        <v>3074.0210514</v>
-      </c>
-      <c r="E19" s="21">
-        <v>0</v>
-      </c>
-      <c r="F19" s="20">
-        <v>4.3750000000000004E-3</v>
-      </c>
-      <c r="G19" s="6">
-        <v>4.3750000000000004E-3</v>
-      </c>
-      <c r="H19" s="6">
-        <v>4</v>
-      </c>
-      <c r="I19" s="29">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="J19" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="20">
-        <v>20</v>
-      </c>
-      <c r="N19" s="36"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="20">
-        <v>5000</v>
-      </c>
-      <c r="D20" s="21">
-        <v>3890.9917599999999</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20">
-        <v>5.2500000000000003E-3</v>
-      </c>
-      <c r="G20" s="6">
-        <v>5.2500000000000003E-3</v>
-      </c>
-      <c r="H20" s="6">
-        <v>2</v>
-      </c>
-      <c r="I20" s="29">
-        <v>0.28910000000000002</v>
-      </c>
-      <c r="J20" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K20" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="20">
-        <v>20</v>
-      </c>
-      <c r="N20" s="36"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="20">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="21">
-        <v>3984.1805920000002</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="20">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="G21" s="6">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H21" s="6">
-        <v>2</v>
-      </c>
-      <c r="I21" s="29">
-        <v>0.28910000000000002</v>
-      </c>
-      <c r="J21" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="20">
-        <v>20</v>
-      </c>
-      <c r="N21" s="36"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="18">
-        <v>7500</v>
-      </c>
-      <c r="D22" s="19">
-        <v>3754.9145720000001</v>
-      </c>
-      <c r="E22" s="19">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>5.0499999999999998E-3</v>
-      </c>
-      <c r="G22" s="7">
-        <v>5.0499999999999998E-3</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="27">
-        <v>0.27339999999999998</v>
-      </c>
-      <c r="J22" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K22" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="18">
-        <v>20</v>
-      </c>
-      <c r="N22" s="36"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="18">
-        <v>7500</v>
-      </c>
-      <c r="D23" s="19">
-        <v>3841.2410060000002</v>
-      </c>
-      <c r="E23" s="19">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>5.3E-3</v>
-      </c>
-      <c r="G23" s="7">
-        <v>5.3E-3</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="27">
-        <v>0.27339999999999998</v>
-      </c>
-      <c r="J23" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K23" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L23" s="18">
-        <v>20</v>
-      </c>
-      <c r="N23" s="36"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="18">
-        <v>15000</v>
-      </c>
-      <c r="D24" s="19">
-        <v>2887.7753739999998</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <v>3.65E-3</v>
-      </c>
-      <c r="G24" s="7">
-        <v>3.65E-3</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="27">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="J24" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K24" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="18">
-        <v>20</v>
-      </c>
-      <c r="N24" s="36"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="18">
-        <v>15000</v>
-      </c>
-      <c r="D25" s="19">
-        <v>2952.9811180000002</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>3.7750000000000001E-3</v>
-      </c>
-      <c r="G25" s="7">
-        <v>3.7750000000000001E-3</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="27">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="J25" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="18">
-        <v>20</v>
-      </c>
-      <c r="N25" s="36"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="18">
-        <v>25000</v>
-      </c>
-      <c r="D26" s="19">
-        <v>2377.342654</v>
-      </c>
-      <c r="E26" s="19">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="G26" s="7">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="27">
-        <v>0.35970000000000002</v>
-      </c>
-      <c r="J26" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="18">
-        <v>20</v>
-      </c>
-      <c r="N26" s="36"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="18">
-        <v>25000</v>
-      </c>
-      <c r="D27" s="19">
-        <v>2428.5374040000002</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="G27" s="7">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="H27" s="7">
-        <v>2</v>
-      </c>
-      <c r="I27" s="27">
-        <v>0.35970000000000002</v>
-      </c>
-      <c r="J27" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K27" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="18">
-        <v>20</v>
-      </c>
-      <c r="N27" s="36"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="18">
-        <v>65</v>
-      </c>
-      <c r="D28" s="19">
-        <v>5474</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="G28" s="7">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="27">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="J28" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L28" s="18">
-        <v>15</v>
-      </c>
-      <c r="N28" s="36"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="18">
-        <v>75</v>
-      </c>
-      <c r="D29" s="19">
-        <v>4460.4444439999997</v>
-      </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H29" s="7">
-        <v>4</v>
-      </c>
-      <c r="I29" s="27">
-        <v>0.26</v>
-      </c>
-      <c r="J29" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K29" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="18">
-        <v>15</v>
-      </c>
-      <c r="N29" s="36"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="18">
-        <v>200</v>
-      </c>
-      <c r="D30" s="19">
-        <v>5355</v>
-      </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G30" s="7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H30" s="7">
-        <v>5</v>
-      </c>
-      <c r="I30" s="27">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="J30" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K30" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="18">
-        <v>15</v>
-      </c>
-      <c r="N30" s="36"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="18">
-        <v>250</v>
-      </c>
-      <c r="D31" s="19">
-        <v>4146.1333340000001</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G31" s="7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="27">
-        <v>0.27</v>
-      </c>
-      <c r="J31" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K31" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L31" s="18">
-        <v>15</v>
-      </c>
-      <c r="N31" s="36"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="18">
-        <v>250</v>
-      </c>
-      <c r="D32" s="19">
-        <v>4622.3</v>
-      </c>
-      <c r="E32" s="19">
-        <v>0</v>
-      </c>
-      <c r="F32" s="18">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="G32" s="7">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="27">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="J32" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K32" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L32" s="18">
-        <v>15</v>
-      </c>
-      <c r="N32" s="36"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="18">
-        <v>100</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19">
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="G33" s="7">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="27">
-        <v>0.42727272700000002</v>
-      </c>
-      <c r="J33" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K33" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L33" s="18">
-        <v>20</v>
-      </c>
-      <c r="N33" s="36"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="18">
-        <v>400</v>
-      </c>
-      <c r="D34" s="19">
-        <v>14000</v>
-      </c>
-      <c r="E34" s="19">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G34" s="7">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="27">
-        <v>0.38181818200000001</v>
-      </c>
-      <c r="J34" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K34" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="18">
-        <v>20</v>
-      </c>
-      <c r="N34" s="36"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="18">
-        <v>500</v>
-      </c>
-      <c r="D35" s="19">
-        <v>3628.114286</v>
-      </c>
-      <c r="E35" s="19">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="H35" s="7">
-        <v>4</v>
-      </c>
-      <c r="I35" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="J35" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K35" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="18">
-        <v>15</v>
-      </c>
-      <c r="N35" s="36"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="18">
-        <v>750</v>
-      </c>
-      <c r="D36" s="19">
-        <v>3504.1791039999998</v>
-      </c>
-      <c r="E36" s="19">
-        <v>0</v>
-      </c>
-      <c r="F36" s="18">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="G36" s="7">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="H36" s="7">
-        <v>4</v>
-      </c>
-      <c r="I36" s="27">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="J36" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K36" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="18">
-        <v>20</v>
-      </c>
-      <c r="N36" s="36"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="18">
-        <v>1000</v>
-      </c>
-      <c r="D37" s="19">
-        <v>3042</v>
-      </c>
-      <c r="E37" s="19">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="G37" s="7">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="H37" s="7">
-        <v>4</v>
-      </c>
-      <c r="I37" s="27">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="J37" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K37" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="18">
-        <v>20</v>
-      </c>
-      <c r="N37" s="36"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="18">
-        <v>1000</v>
-      </c>
-      <c r="D38" s="19">
-        <v>4250</v>
-      </c>
-      <c r="E38" s="19">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G38" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H38" s="7">
-        <v>5</v>
-      </c>
-      <c r="I38" s="27">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="J38" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K38" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="18">
-        <v>15</v>
-      </c>
-      <c r="N38" s="36"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="18">
-        <v>1000</v>
-      </c>
-      <c r="D39" s="19">
-        <v>12320</v>
-      </c>
-      <c r="E39" s="19">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="G39" s="7">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="I39" s="27">
-        <v>0.42730000000000001</v>
-      </c>
-      <c r="J39" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K39" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L39" s="18">
-        <v>20</v>
-      </c>
-      <c r="N39" s="36"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="18">
-        <v>1400</v>
-      </c>
-      <c r="D40" s="19">
-        <v>8800</v>
-      </c>
-      <c r="E40" s="19">
-        <v>0</v>
-      </c>
-      <c r="F40" s="18">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="H40" s="7">
-        <v>1</v>
-      </c>
-      <c r="I40" s="27">
-        <v>0.42727272700000002</v>
-      </c>
-      <c r="J40" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K40" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L40" s="18">
-        <v>20</v>
-      </c>
-      <c r="N40" s="36"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="18">
-        <v>2500</v>
-      </c>
-      <c r="D41" s="19">
-        <v>2568.6037740000002</v>
-      </c>
-      <c r="E41" s="19">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G41" s="7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H41" s="7">
-        <v>4</v>
-      </c>
-      <c r="I41" s="27">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="J41" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K41" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L41" s="18">
-        <v>20</v>
-      </c>
-      <c r="N41" s="36"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="18">
-        <v>2800</v>
-      </c>
-      <c r="D42" s="19">
-        <v>8000</v>
-      </c>
-      <c r="E42" s="19">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="G42" s="7">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="H42" s="7">
-        <v>1</v>
-      </c>
-      <c r="I42" s="27">
-        <v>0.42730000000000001</v>
-      </c>
-      <c r="J42" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K42" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L42" s="18">
-        <v>20</v>
-      </c>
-      <c r="N42" s="36"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="18">
-        <v>3500</v>
-      </c>
-      <c r="D43" s="19">
-        <v>5048.4322039999997</v>
-      </c>
-      <c r="E43" s="19">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G43" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H43" s="7">
-        <v>2</v>
-      </c>
-      <c r="I43" s="27">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="J43" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K43" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="18">
-        <v>20</v>
-      </c>
-      <c r="N43" s="36"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="18">
-        <v>4000</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0</v>
-      </c>
-      <c r="E44" s="19">
-        <v>0</v>
-      </c>
-      <c r="F44" s="18">
-        <v>4.2500000000000003E-3</v>
-      </c>
-      <c r="G44" s="7">
-        <v>4.2500000000000003E-3</v>
-      </c>
-      <c r="H44" s="7">
-        <v>4</v>
-      </c>
-      <c r="I44" s="27">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="J44" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K44" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L44" s="18">
-        <v>20</v>
-      </c>
-      <c r="N44" s="36"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="18">
-        <v>5000</v>
-      </c>
-      <c r="D45" s="19">
-        <v>3269.7328779999998</v>
-      </c>
-      <c r="E45" s="19">
-        <v>0</v>
-      </c>
-      <c r="F45" s="18">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="G45" s="7">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="H45" s="7">
-        <v>2</v>
-      </c>
-      <c r="I45" s="27">
-        <v>0.28910000000000002</v>
-      </c>
-      <c r="J45" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K45" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L45" s="18">
-        <v>20</v>
-      </c>
-      <c r="N45" s="36"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="18">
-        <v>7500</v>
-      </c>
-      <c r="D46" s="19">
-        <v>3179.4050259999999</v>
-      </c>
-      <c r="E46" s="19">
-        <v>0</v>
-      </c>
-      <c r="F46" s="18">
-        <v>4.45E-3</v>
-      </c>
-      <c r="G46" s="7">
-        <v>4.45E-3</v>
-      </c>
-      <c r="H46" s="7">
-        <v>2</v>
-      </c>
-      <c r="I46" s="27">
-        <v>0.27339999999999998</v>
-      </c>
-      <c r="J46" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K46" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L46" s="18">
-        <v>20</v>
-      </c>
-      <c r="N46" s="36"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="18">
-        <v>15000</v>
-      </c>
-      <c r="D47" s="19">
-        <v>2453.070416</v>
-      </c>
-      <c r="E47" s="19">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="G47" s="7">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="H47" s="7">
-        <v>2</v>
-      </c>
-      <c r="I47" s="27">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="J47" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K47" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L47" s="18">
-        <v>20</v>
-      </c>
-      <c r="N47" s="36"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="18">
-        <v>25000</v>
-      </c>
-      <c r="D48" s="19">
-        <v>2036.044326</v>
-      </c>
-      <c r="E48" s="19">
-        <v>0</v>
-      </c>
-      <c r="F48" s="18">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="G48" s="7">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="H48" s="7">
-        <v>2</v>
-      </c>
-      <c r="I48" s="27">
-        <v>0.35970000000000002</v>
-      </c>
-      <c r="J48" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K48" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L48" s="18">
-        <v>20</v>
-      </c>
-      <c r="N48" s="36"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="18">
-        <v>25000</v>
-      </c>
-      <c r="D49" s="19">
-        <v>2036.044326</v>
-      </c>
-      <c r="E49" s="19">
-        <v>0</v>
-      </c>
-      <c r="F49" s="18">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="G49" s="8">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="H49" s="8">
-        <v>2</v>
-      </c>
-      <c r="I49" s="27">
-        <v>0.35970000000000002</v>
-      </c>
-      <c r="J49" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K49" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L49" s="18">
-        <v>20</v>
-      </c>
-      <c r="N49" s="36"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="18">
-        <v>25000</v>
-      </c>
-      <c r="D50" s="19">
-        <v>2036.044326</v>
-      </c>
-      <c r="E50" s="19">
-        <v>0</v>
-      </c>
-      <c r="F50" s="18">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="G50" s="8">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="H50" s="8">
-        <v>2</v>
-      </c>
-      <c r="I50" s="27">
-        <v>0.35970000000000002</v>
-      </c>
-      <c r="J50" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K50" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L50" s="18">
-        <v>20</v>
-      </c>
-      <c r="N50" s="36"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="18">
-        <v>25000</v>
-      </c>
-      <c r="D51" s="19">
-        <v>2036.044326</v>
-      </c>
-      <c r="E51" s="19">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="G51" s="8">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="H51" s="8">
-        <v>2</v>
-      </c>
-      <c r="I51" s="27">
-        <v>0.35970000000000002</v>
-      </c>
-      <c r="J51" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K51" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="L51" s="18">
-        <v>20</v>
-      </c>
-      <c r="N51" s="36"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="22">
-        <v>250</v>
-      </c>
-      <c r="D52" s="23">
-        <v>1884</v>
-      </c>
-      <c r="E52" s="23">
-        <v>0</v>
-      </c>
-      <c r="F52" s="22">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="G52" s="9">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H52" s="9">
-        <v>1</v>
-      </c>
-      <c r="I52" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="J52" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="K52" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="L52" s="22">
-        <v>20</v>
-      </c>
-      <c r="N52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="22">
-        <v>100</v>
-      </c>
-      <c r="D53" s="23">
-        <v>2300</v>
-      </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="22">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="G53" s="9">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H53" s="9">
-        <v>1</v>
-      </c>
-      <c r="I53" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="J53" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="K53" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="L53" s="22">
-        <v>20</v>
-      </c>
-      <c r="N53" s="36"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" s="22">
-        <v>10</v>
-      </c>
-      <c r="D54" s="23">
-        <v>2527</v>
-      </c>
-      <c r="E54" s="23">
-        <v>0</v>
-      </c>
-      <c r="F54" s="22">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="G54" s="9">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H54" s="9">
-        <v>1</v>
-      </c>
-      <c r="I54" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="J54" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="K54" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="L54" s="22">
-        <v>20</v>
-      </c>
-      <c r="N54" s="36"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="22">
-        <v>5</v>
-      </c>
-      <c r="D55" s="23">
-        <v>3946</v>
-      </c>
-      <c r="E55" s="23">
-        <v>0</v>
-      </c>
-      <c r="F55" s="22">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="G55" s="9">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H55" s="9">
-        <v>1</v>
-      </c>
-      <c r="I55" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="J55" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="K55" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="L55" s="22">
-        <v>20</v>
-      </c>
-      <c r="N55" s="36"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="22">
-        <v>250</v>
-      </c>
-      <c r="D56" s="23">
-        <v>2219</v>
-      </c>
-      <c r="E56" s="23">
-        <v>0</v>
-      </c>
-      <c r="F56" s="22">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="G56" s="9">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H56" s="9">
-        <v>1</v>
-      </c>
-      <c r="I56" s="30">
-        <v>0.35</v>
-      </c>
-      <c r="J56" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="K56" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="L56" s="22">
-        <v>20</v>
-      </c>
-      <c r="N56" s="36"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="22">
-        <v>100</v>
-      </c>
-      <c r="D57" s="23">
-        <v>3140</v>
-      </c>
-      <c r="E57" s="23">
-        <v>0</v>
-      </c>
-      <c r="F57" s="22">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="G57" s="9">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H57" s="9">
-        <v>1</v>
-      </c>
-      <c r="I57" s="30">
-        <v>0.35</v>
-      </c>
-      <c r="J57" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="K57" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="L57" s="22">
-        <v>20</v>
-      </c>
-      <c r="N57" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data_sets/Power/ODO_INPUT.xlsx
+++ b/data_sets/Power/ODO_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hlh/Dropbox/Work/Collaborations/Harsha/Networked_Microgrid/ODO/data_sets/Power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9BFE7E-5AA0-9C4A-A89B-2D51BFB20650}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67101A3C-DCFE-CD4C-B852-ED43E1A38735}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="47340" windowHeight="16080" tabRatio="938" firstSheet="4" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="938" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunSettings" sheetId="107" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="WindVariance" sheetId="214" r:id="rId18"/>
     <sheet name="Non-branch Entity Reliability" sheetId="226" r:id="rId19"/>
     <sheet name="Branch Reliability" sheetId="221" r:id="rId20"/>
-    <sheet name="Resiliency Scenarios" sheetId="223" r:id="rId21"/>
+    <sheet name="ResiliencyScenarios" sheetId="223" r:id="rId21"/>
     <sheet name="LoadTimeSeries" sheetId="225" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -44,6 +44,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7229" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9054" uniqueCount="364">
   <si>
     <t>January</t>
   </si>
@@ -1144,6 +1145,9 @@
   <si>
     <t>load_670a_phase_3</t>
   </si>
+  <si>
+    <t>gen_1</t>
+  </si>
 </sst>
 </file>
 
@@ -1152,7 +1156,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1683,7 +1687,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1707,7 +1711,8 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -10502,8 +10507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DF613-129E-417F-876D-4B00A3A21EFA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10556,9 +10561,12 @@
       <c r="C3" t="s">
         <v>359</v>
       </c>
+      <c r="D3" t="s">
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:R2 C4:R23 F3:R3 C3:D3">
+  <conditionalFormatting sqref="C2:E2 C3:D3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -10570,10 +10578,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5650443F-DA3A-2845-B927-D9C5E5073133}">
-  <dimension ref="A1:T262"/>
+  <dimension ref="A1:T338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O2"/>
+    <sheetView topLeftCell="L293" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="U309" sqref="U309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24378,7 +24386,7 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="17">
-        <f t="shared" ref="A220:A262" si="5">A219+1/24</f>
+        <f t="shared" ref="A220:A241" si="5">A219+1/24</f>
         <v>43619.083333333328</v>
       </c>
       <c r="B220" t="s">
@@ -25763,67 +25771,6051 @@
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A242" s="17"/>
+      <c r="A242" s="17">
+        <v>43586</v>
+      </c>
+      <c r="B242" t="s">
+        <v>339</v>
+      </c>
+      <c r="C242" t="s">
+        <v>336</v>
+      </c>
+      <c r="D242" t="s">
+        <v>339</v>
+      </c>
+      <c r="E242" t="s">
+        <v>342</v>
+      </c>
+      <c r="F242" t="s">
+        <v>342</v>
+      </c>
+      <c r="G242" t="s">
+        <v>330</v>
+      </c>
+      <c r="H242" t="s">
+        <v>330</v>
+      </c>
+      <c r="I242" t="s">
+        <v>330</v>
+      </c>
+      <c r="J242" t="s">
+        <v>334</v>
+      </c>
+      <c r="K242" t="s">
+        <v>335</v>
+      </c>
+      <c r="L242" t="s">
+        <v>335</v>
+      </c>
+      <c r="M242" t="s">
+        <v>346</v>
+      </c>
+      <c r="N242" t="s">
+        <v>347</v>
+      </c>
+      <c r="O242" t="s">
+        <v>348</v>
+      </c>
+      <c r="P242" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>352</v>
+      </c>
+      <c r="R242" t="s">
+        <v>353</v>
+      </c>
+      <c r="S242" t="s">
+        <v>354</v>
+      </c>
+      <c r="T242" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A243" s="17"/>
+      <c r="A243" s="17">
+        <f>A242+1/24</f>
+        <v>43586.041666666664</v>
+      </c>
+      <c r="B243" t="s">
+        <v>339</v>
+      </c>
+      <c r="C243" t="s">
+        <v>336</v>
+      </c>
+      <c r="D243" t="s">
+        <v>339</v>
+      </c>
+      <c r="E243" t="s">
+        <v>342</v>
+      </c>
+      <c r="F243" t="s">
+        <v>342</v>
+      </c>
+      <c r="G243" t="s">
+        <v>330</v>
+      </c>
+      <c r="H243" t="s">
+        <v>330</v>
+      </c>
+      <c r="I243" t="s">
+        <v>330</v>
+      </c>
+      <c r="J243" t="s">
+        <v>334</v>
+      </c>
+      <c r="K243" t="s">
+        <v>335</v>
+      </c>
+      <c r="L243" t="s">
+        <v>335</v>
+      </c>
+      <c r="M243" t="s">
+        <v>346</v>
+      </c>
+      <c r="N243" t="s">
+        <v>347</v>
+      </c>
+      <c r="O243" t="s">
+        <v>348</v>
+      </c>
+      <c r="P243" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>352</v>
+      </c>
+      <c r="R243" t="s">
+        <v>353</v>
+      </c>
+      <c r="S243" t="s">
+        <v>354</v>
+      </c>
+      <c r="T243" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A244" s="17"/>
+      <c r="A244" s="17">
+        <f t="shared" ref="A244:A265" si="6">A243+1/24</f>
+        <v>43586.083333333328</v>
+      </c>
+      <c r="B244" t="s">
+        <v>339</v>
+      </c>
+      <c r="C244" t="s">
+        <v>336</v>
+      </c>
+      <c r="D244" t="s">
+        <v>339</v>
+      </c>
+      <c r="E244" t="s">
+        <v>342</v>
+      </c>
+      <c r="F244" t="s">
+        <v>342</v>
+      </c>
+      <c r="G244" t="s">
+        <v>330</v>
+      </c>
+      <c r="H244" t="s">
+        <v>330</v>
+      </c>
+      <c r="I244" t="s">
+        <v>330</v>
+      </c>
+      <c r="J244" t="s">
+        <v>334</v>
+      </c>
+      <c r="K244" t="s">
+        <v>335</v>
+      </c>
+      <c r="L244" t="s">
+        <v>335</v>
+      </c>
+      <c r="M244" t="s">
+        <v>346</v>
+      </c>
+      <c r="N244" t="s">
+        <v>347</v>
+      </c>
+      <c r="O244" t="s">
+        <v>348</v>
+      </c>
+      <c r="P244" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>352</v>
+      </c>
+      <c r="R244" t="s">
+        <v>353</v>
+      </c>
+      <c r="S244" t="s">
+        <v>354</v>
+      </c>
+      <c r="T244" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A245" s="17"/>
+      <c r="A245" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.124999999993</v>
+      </c>
+      <c r="B245" t="s">
+        <v>339</v>
+      </c>
+      <c r="C245" t="s">
+        <v>336</v>
+      </c>
+      <c r="D245" t="s">
+        <v>339</v>
+      </c>
+      <c r="E245" t="s">
+        <v>342</v>
+      </c>
+      <c r="F245" t="s">
+        <v>342</v>
+      </c>
+      <c r="G245" t="s">
+        <v>330</v>
+      </c>
+      <c r="H245" t="s">
+        <v>330</v>
+      </c>
+      <c r="I245" t="s">
+        <v>330</v>
+      </c>
+      <c r="J245" t="s">
+        <v>334</v>
+      </c>
+      <c r="K245" t="s">
+        <v>335</v>
+      </c>
+      <c r="L245" t="s">
+        <v>335</v>
+      </c>
+      <c r="M245" t="s">
+        <v>346</v>
+      </c>
+      <c r="N245" t="s">
+        <v>347</v>
+      </c>
+      <c r="O245" t="s">
+        <v>348</v>
+      </c>
+      <c r="P245" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>352</v>
+      </c>
+      <c r="R245" t="s">
+        <v>353</v>
+      </c>
+      <c r="S245" t="s">
+        <v>354</v>
+      </c>
+      <c r="T245" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A246" s="17"/>
+      <c r="A246" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.166666666657</v>
+      </c>
+      <c r="B246" t="s">
+        <v>339</v>
+      </c>
+      <c r="C246" t="s">
+        <v>336</v>
+      </c>
+      <c r="D246" t="s">
+        <v>339</v>
+      </c>
+      <c r="E246" t="s">
+        <v>342</v>
+      </c>
+      <c r="F246" t="s">
+        <v>342</v>
+      </c>
+      <c r="G246" t="s">
+        <v>330</v>
+      </c>
+      <c r="H246" t="s">
+        <v>330</v>
+      </c>
+      <c r="I246" t="s">
+        <v>330</v>
+      </c>
+      <c r="J246" t="s">
+        <v>334</v>
+      </c>
+      <c r="K246" t="s">
+        <v>335</v>
+      </c>
+      <c r="L246" t="s">
+        <v>335</v>
+      </c>
+      <c r="M246" t="s">
+        <v>346</v>
+      </c>
+      <c r="N246" t="s">
+        <v>347</v>
+      </c>
+      <c r="O246" t="s">
+        <v>348</v>
+      </c>
+      <c r="P246" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>352</v>
+      </c>
+      <c r="R246" t="s">
+        <v>353</v>
+      </c>
+      <c r="S246" t="s">
+        <v>354</v>
+      </c>
+      <c r="T246" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A247" s="17"/>
+      <c r="A247" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.208333333321</v>
+      </c>
+      <c r="B247" t="s">
+        <v>339</v>
+      </c>
+      <c r="C247" t="s">
+        <v>336</v>
+      </c>
+      <c r="D247" t="s">
+        <v>339</v>
+      </c>
+      <c r="E247" t="s">
+        <v>342</v>
+      </c>
+      <c r="F247" t="s">
+        <v>342</v>
+      </c>
+      <c r="G247" t="s">
+        <v>330</v>
+      </c>
+      <c r="H247" t="s">
+        <v>330</v>
+      </c>
+      <c r="I247" t="s">
+        <v>330</v>
+      </c>
+      <c r="J247" t="s">
+        <v>334</v>
+      </c>
+      <c r="K247" t="s">
+        <v>335</v>
+      </c>
+      <c r="L247" t="s">
+        <v>335</v>
+      </c>
+      <c r="M247" t="s">
+        <v>346</v>
+      </c>
+      <c r="N247" t="s">
+        <v>347</v>
+      </c>
+      <c r="O247" t="s">
+        <v>348</v>
+      </c>
+      <c r="P247" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>352</v>
+      </c>
+      <c r="R247" t="s">
+        <v>353</v>
+      </c>
+      <c r="S247" t="s">
+        <v>354</v>
+      </c>
+      <c r="T247" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A248" s="17"/>
+      <c r="A248" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.249999999985</v>
+      </c>
+      <c r="B248" t="s">
+        <v>339</v>
+      </c>
+      <c r="C248" t="s">
+        <v>336</v>
+      </c>
+      <c r="D248" t="s">
+        <v>339</v>
+      </c>
+      <c r="E248" t="s">
+        <v>342</v>
+      </c>
+      <c r="F248" t="s">
+        <v>342</v>
+      </c>
+      <c r="G248" t="s">
+        <v>330</v>
+      </c>
+      <c r="H248" t="s">
+        <v>330</v>
+      </c>
+      <c r="I248" t="s">
+        <v>330</v>
+      </c>
+      <c r="J248" t="s">
+        <v>334</v>
+      </c>
+      <c r="K248" t="s">
+        <v>335</v>
+      </c>
+      <c r="L248" t="s">
+        <v>335</v>
+      </c>
+      <c r="M248" t="s">
+        <v>346</v>
+      </c>
+      <c r="N248" t="s">
+        <v>347</v>
+      </c>
+      <c r="O248" t="s">
+        <v>348</v>
+      </c>
+      <c r="P248" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>352</v>
+      </c>
+      <c r="R248" t="s">
+        <v>353</v>
+      </c>
+      <c r="S248" t="s">
+        <v>354</v>
+      </c>
+      <c r="T248" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A249" s="17"/>
+      <c r="A249" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.29166666665</v>
+      </c>
+      <c r="B249" t="s">
+        <v>339</v>
+      </c>
+      <c r="C249" t="s">
+        <v>336</v>
+      </c>
+      <c r="D249" t="s">
+        <v>339</v>
+      </c>
+      <c r="E249" t="s">
+        <v>342</v>
+      </c>
+      <c r="F249" t="s">
+        <v>342</v>
+      </c>
+      <c r="G249" t="s">
+        <v>330</v>
+      </c>
+      <c r="H249" t="s">
+        <v>330</v>
+      </c>
+      <c r="I249" t="s">
+        <v>330</v>
+      </c>
+      <c r="J249" t="s">
+        <v>334</v>
+      </c>
+      <c r="K249" t="s">
+        <v>335</v>
+      </c>
+      <c r="L249" t="s">
+        <v>335</v>
+      </c>
+      <c r="M249" t="s">
+        <v>346</v>
+      </c>
+      <c r="N249" t="s">
+        <v>347</v>
+      </c>
+      <c r="O249" t="s">
+        <v>348</v>
+      </c>
+      <c r="P249" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>352</v>
+      </c>
+      <c r="R249" t="s">
+        <v>353</v>
+      </c>
+      <c r="S249" t="s">
+        <v>354</v>
+      </c>
+      <c r="T249" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A250" s="17"/>
+      <c r="A250" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.333333333314</v>
+      </c>
+      <c r="B250" t="s">
+        <v>339</v>
+      </c>
+      <c r="C250" t="s">
+        <v>336</v>
+      </c>
+      <c r="D250" t="s">
+        <v>339</v>
+      </c>
+      <c r="E250" t="s">
+        <v>342</v>
+      </c>
+      <c r="F250" t="s">
+        <v>342</v>
+      </c>
+      <c r="G250" t="s">
+        <v>330</v>
+      </c>
+      <c r="H250" t="s">
+        <v>330</v>
+      </c>
+      <c r="I250" t="s">
+        <v>330</v>
+      </c>
+      <c r="J250" t="s">
+        <v>334</v>
+      </c>
+      <c r="K250" t="s">
+        <v>335</v>
+      </c>
+      <c r="L250" t="s">
+        <v>335</v>
+      </c>
+      <c r="M250" t="s">
+        <v>346</v>
+      </c>
+      <c r="N250" t="s">
+        <v>347</v>
+      </c>
+      <c r="O250" t="s">
+        <v>348</v>
+      </c>
+      <c r="P250" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>352</v>
+      </c>
+      <c r="R250" t="s">
+        <v>353</v>
+      </c>
+      <c r="S250" t="s">
+        <v>354</v>
+      </c>
+      <c r="T250" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A251" s="17"/>
+      <c r="A251" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.374999999978</v>
+      </c>
+      <c r="B251" t="s">
+        <v>339</v>
+      </c>
+      <c r="C251" t="s">
+        <v>336</v>
+      </c>
+      <c r="D251" t="s">
+        <v>339</v>
+      </c>
+      <c r="E251" t="s">
+        <v>342</v>
+      </c>
+      <c r="F251" t="s">
+        <v>342</v>
+      </c>
+      <c r="G251" t="s">
+        <v>330</v>
+      </c>
+      <c r="H251" t="s">
+        <v>330</v>
+      </c>
+      <c r="I251" t="s">
+        <v>330</v>
+      </c>
+      <c r="J251" t="s">
+        <v>334</v>
+      </c>
+      <c r="K251" t="s">
+        <v>335</v>
+      </c>
+      <c r="L251" t="s">
+        <v>335</v>
+      </c>
+      <c r="M251" t="s">
+        <v>346</v>
+      </c>
+      <c r="N251" t="s">
+        <v>347</v>
+      </c>
+      <c r="O251" t="s">
+        <v>348</v>
+      </c>
+      <c r="P251" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>352</v>
+      </c>
+      <c r="R251" t="s">
+        <v>353</v>
+      </c>
+      <c r="S251" t="s">
+        <v>354</v>
+      </c>
+      <c r="T251" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A252" s="17"/>
+      <c r="A252" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.416666666642</v>
+      </c>
+      <c r="B252" t="s">
+        <v>339</v>
+      </c>
+      <c r="C252" t="s">
+        <v>336</v>
+      </c>
+      <c r="D252" t="s">
+        <v>339</v>
+      </c>
+      <c r="E252" t="s">
+        <v>342</v>
+      </c>
+      <c r="F252" t="s">
+        <v>342</v>
+      </c>
+      <c r="G252" t="s">
+        <v>330</v>
+      </c>
+      <c r="H252" t="s">
+        <v>330</v>
+      </c>
+      <c r="I252" t="s">
+        <v>330</v>
+      </c>
+      <c r="J252" t="s">
+        <v>334</v>
+      </c>
+      <c r="K252" t="s">
+        <v>335</v>
+      </c>
+      <c r="L252" t="s">
+        <v>335</v>
+      </c>
+      <c r="M252" t="s">
+        <v>346</v>
+      </c>
+      <c r="N252" t="s">
+        <v>347</v>
+      </c>
+      <c r="O252" t="s">
+        <v>348</v>
+      </c>
+      <c r="P252" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>352</v>
+      </c>
+      <c r="R252" t="s">
+        <v>353</v>
+      </c>
+      <c r="S252" t="s">
+        <v>354</v>
+      </c>
+      <c r="T252" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A253" s="17"/>
+      <c r="A253" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.458333333307</v>
+      </c>
+      <c r="B253" t="s">
+        <v>339</v>
+      </c>
+      <c r="C253" t="s">
+        <v>336</v>
+      </c>
+      <c r="D253" t="s">
+        <v>339</v>
+      </c>
+      <c r="E253" t="s">
+        <v>342</v>
+      </c>
+      <c r="F253" t="s">
+        <v>342</v>
+      </c>
+      <c r="G253" t="s">
+        <v>330</v>
+      </c>
+      <c r="H253" t="s">
+        <v>330</v>
+      </c>
+      <c r="I253" t="s">
+        <v>330</v>
+      </c>
+      <c r="J253" t="s">
+        <v>334</v>
+      </c>
+      <c r="K253" t="s">
+        <v>335</v>
+      </c>
+      <c r="L253" t="s">
+        <v>335</v>
+      </c>
+      <c r="M253" t="s">
+        <v>346</v>
+      </c>
+      <c r="N253" t="s">
+        <v>347</v>
+      </c>
+      <c r="O253" t="s">
+        <v>348</v>
+      </c>
+      <c r="P253" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>352</v>
+      </c>
+      <c r="R253" t="s">
+        <v>353</v>
+      </c>
+      <c r="S253" t="s">
+        <v>354</v>
+      </c>
+      <c r="T253" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A254" s="17"/>
+      <c r="A254" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.499999999971</v>
+      </c>
+      <c r="B254" t="s">
+        <v>339</v>
+      </c>
+      <c r="C254" t="s">
+        <v>336</v>
+      </c>
+      <c r="D254" t="s">
+        <v>339</v>
+      </c>
+      <c r="E254" t="s">
+        <v>342</v>
+      </c>
+      <c r="F254" t="s">
+        <v>342</v>
+      </c>
+      <c r="G254" t="s">
+        <v>330</v>
+      </c>
+      <c r="H254" t="s">
+        <v>330</v>
+      </c>
+      <c r="I254" t="s">
+        <v>330</v>
+      </c>
+      <c r="J254" t="s">
+        <v>334</v>
+      </c>
+      <c r="K254" t="s">
+        <v>335</v>
+      </c>
+      <c r="L254" t="s">
+        <v>335</v>
+      </c>
+      <c r="M254" t="s">
+        <v>346</v>
+      </c>
+      <c r="N254" t="s">
+        <v>347</v>
+      </c>
+      <c r="O254" t="s">
+        <v>348</v>
+      </c>
+      <c r="P254" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>352</v>
+      </c>
+      <c r="R254" t="s">
+        <v>353</v>
+      </c>
+      <c r="S254" t="s">
+        <v>354</v>
+      </c>
+      <c r="T254" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A255" s="17"/>
+      <c r="A255" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.541666666635</v>
+      </c>
+      <c r="B255" t="s">
+        <v>339</v>
+      </c>
+      <c r="C255" t="s">
+        <v>336</v>
+      </c>
+      <c r="D255" t="s">
+        <v>339</v>
+      </c>
+      <c r="E255" t="s">
+        <v>342</v>
+      </c>
+      <c r="F255" t="s">
+        <v>342</v>
+      </c>
+      <c r="G255" t="s">
+        <v>330</v>
+      </c>
+      <c r="H255" t="s">
+        <v>330</v>
+      </c>
+      <c r="I255" t="s">
+        <v>330</v>
+      </c>
+      <c r="J255" t="s">
+        <v>334</v>
+      </c>
+      <c r="K255" t="s">
+        <v>335</v>
+      </c>
+      <c r="L255" t="s">
+        <v>335</v>
+      </c>
+      <c r="M255" t="s">
+        <v>346</v>
+      </c>
+      <c r="N255" t="s">
+        <v>347</v>
+      </c>
+      <c r="O255" t="s">
+        <v>348</v>
+      </c>
+      <c r="P255" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>352</v>
+      </c>
+      <c r="R255" t="s">
+        <v>353</v>
+      </c>
+      <c r="S255" t="s">
+        <v>354</v>
+      </c>
+      <c r="T255" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A256" s="17"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="17"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="17"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="17"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="17"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="17"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="17"/>
+      <c r="A256" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.583333333299</v>
+      </c>
+      <c r="B256" t="s">
+        <v>339</v>
+      </c>
+      <c r="C256" t="s">
+        <v>336</v>
+      </c>
+      <c r="D256" t="s">
+        <v>339</v>
+      </c>
+      <c r="E256" t="s">
+        <v>342</v>
+      </c>
+      <c r="F256" t="s">
+        <v>342</v>
+      </c>
+      <c r="G256" t="s">
+        <v>330</v>
+      </c>
+      <c r="H256" t="s">
+        <v>330</v>
+      </c>
+      <c r="I256" t="s">
+        <v>330</v>
+      </c>
+      <c r="J256" t="s">
+        <v>334</v>
+      </c>
+      <c r="K256" t="s">
+        <v>335</v>
+      </c>
+      <c r="L256" t="s">
+        <v>335</v>
+      </c>
+      <c r="M256" t="s">
+        <v>346</v>
+      </c>
+      <c r="N256" t="s">
+        <v>347</v>
+      </c>
+      <c r="O256" t="s">
+        <v>348</v>
+      </c>
+      <c r="P256" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>352</v>
+      </c>
+      <c r="R256" t="s">
+        <v>353</v>
+      </c>
+      <c r="S256" t="s">
+        <v>354</v>
+      </c>
+      <c r="T256" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A257" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.624999999964</v>
+      </c>
+      <c r="B257" t="s">
+        <v>339</v>
+      </c>
+      <c r="C257" t="s">
+        <v>336</v>
+      </c>
+      <c r="D257" t="s">
+        <v>339</v>
+      </c>
+      <c r="E257" t="s">
+        <v>342</v>
+      </c>
+      <c r="F257" t="s">
+        <v>342</v>
+      </c>
+      <c r="G257" t="s">
+        <v>330</v>
+      </c>
+      <c r="H257" t="s">
+        <v>330</v>
+      </c>
+      <c r="I257" t="s">
+        <v>330</v>
+      </c>
+      <c r="J257" t="s">
+        <v>334</v>
+      </c>
+      <c r="K257" t="s">
+        <v>335</v>
+      </c>
+      <c r="L257" t="s">
+        <v>335</v>
+      </c>
+      <c r="M257" t="s">
+        <v>346</v>
+      </c>
+      <c r="N257" t="s">
+        <v>347</v>
+      </c>
+      <c r="O257" t="s">
+        <v>348</v>
+      </c>
+      <c r="P257" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>352</v>
+      </c>
+      <c r="R257" t="s">
+        <v>353</v>
+      </c>
+      <c r="S257" t="s">
+        <v>354</v>
+      </c>
+      <c r="T257" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A258" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.666666666628</v>
+      </c>
+      <c r="B258" t="s">
+        <v>339</v>
+      </c>
+      <c r="C258" t="s">
+        <v>336</v>
+      </c>
+      <c r="D258" t="s">
+        <v>339</v>
+      </c>
+      <c r="E258" t="s">
+        <v>342</v>
+      </c>
+      <c r="F258" t="s">
+        <v>342</v>
+      </c>
+      <c r="G258" t="s">
+        <v>330</v>
+      </c>
+      <c r="H258" t="s">
+        <v>330</v>
+      </c>
+      <c r="I258" t="s">
+        <v>330</v>
+      </c>
+      <c r="J258" t="s">
+        <v>334</v>
+      </c>
+      <c r="K258" t="s">
+        <v>335</v>
+      </c>
+      <c r="L258" t="s">
+        <v>335</v>
+      </c>
+      <c r="M258" t="s">
+        <v>346</v>
+      </c>
+      <c r="N258" t="s">
+        <v>347</v>
+      </c>
+      <c r="O258" t="s">
+        <v>348</v>
+      </c>
+      <c r="P258" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>352</v>
+      </c>
+      <c r="R258" t="s">
+        <v>353</v>
+      </c>
+      <c r="S258" t="s">
+        <v>354</v>
+      </c>
+      <c r="T258" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A259" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.708333333292</v>
+      </c>
+      <c r="B259" t="s">
+        <v>339</v>
+      </c>
+      <c r="C259" t="s">
+        <v>336</v>
+      </c>
+      <c r="D259" t="s">
+        <v>339</v>
+      </c>
+      <c r="E259" t="s">
+        <v>342</v>
+      </c>
+      <c r="F259" t="s">
+        <v>342</v>
+      </c>
+      <c r="G259" t="s">
+        <v>330</v>
+      </c>
+      <c r="H259" t="s">
+        <v>330</v>
+      </c>
+      <c r="I259" t="s">
+        <v>330</v>
+      </c>
+      <c r="J259" t="s">
+        <v>334</v>
+      </c>
+      <c r="K259" t="s">
+        <v>335</v>
+      </c>
+      <c r="L259" t="s">
+        <v>335</v>
+      </c>
+      <c r="M259" t="s">
+        <v>346</v>
+      </c>
+      <c r="N259" t="s">
+        <v>347</v>
+      </c>
+      <c r="O259" t="s">
+        <v>348</v>
+      </c>
+      <c r="P259" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>352</v>
+      </c>
+      <c r="R259" t="s">
+        <v>353</v>
+      </c>
+      <c r="S259" t="s">
+        <v>354</v>
+      </c>
+      <c r="T259" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A260" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.749999999956</v>
+      </c>
+      <c r="B260" t="s">
+        <v>339</v>
+      </c>
+      <c r="C260" t="s">
+        <v>336</v>
+      </c>
+      <c r="D260" t="s">
+        <v>339</v>
+      </c>
+      <c r="E260" t="s">
+        <v>342</v>
+      </c>
+      <c r="F260" t="s">
+        <v>342</v>
+      </c>
+      <c r="G260" t="s">
+        <v>330</v>
+      </c>
+      <c r="H260" t="s">
+        <v>330</v>
+      </c>
+      <c r="I260" t="s">
+        <v>330</v>
+      </c>
+      <c r="J260" t="s">
+        <v>334</v>
+      </c>
+      <c r="K260" t="s">
+        <v>335</v>
+      </c>
+      <c r="L260" t="s">
+        <v>335</v>
+      </c>
+      <c r="M260" t="s">
+        <v>346</v>
+      </c>
+      <c r="N260" t="s">
+        <v>347</v>
+      </c>
+      <c r="O260" t="s">
+        <v>348</v>
+      </c>
+      <c r="P260" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>352</v>
+      </c>
+      <c r="R260" t="s">
+        <v>353</v>
+      </c>
+      <c r="S260" t="s">
+        <v>354</v>
+      </c>
+      <c r="T260" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A261" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.791666666621</v>
+      </c>
+      <c r="B261" t="s">
+        <v>339</v>
+      </c>
+      <c r="C261" t="s">
+        <v>336</v>
+      </c>
+      <c r="D261" t="s">
+        <v>339</v>
+      </c>
+      <c r="E261" t="s">
+        <v>342</v>
+      </c>
+      <c r="F261" t="s">
+        <v>342</v>
+      </c>
+      <c r="G261" t="s">
+        <v>330</v>
+      </c>
+      <c r="H261" t="s">
+        <v>330</v>
+      </c>
+      <c r="I261" t="s">
+        <v>330</v>
+      </c>
+      <c r="J261" t="s">
+        <v>334</v>
+      </c>
+      <c r="K261" t="s">
+        <v>335</v>
+      </c>
+      <c r="L261" t="s">
+        <v>335</v>
+      </c>
+      <c r="M261" t="s">
+        <v>346</v>
+      </c>
+      <c r="N261" t="s">
+        <v>347</v>
+      </c>
+      <c r="O261" t="s">
+        <v>348</v>
+      </c>
+      <c r="P261" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>352</v>
+      </c>
+      <c r="R261" t="s">
+        <v>353</v>
+      </c>
+      <c r="S261" t="s">
+        <v>354</v>
+      </c>
+      <c r="T261" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A262" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.833333333285</v>
+      </c>
+      <c r="B262" t="s">
+        <v>339</v>
+      </c>
+      <c r="C262" t="s">
+        <v>336</v>
+      </c>
+      <c r="D262" t="s">
+        <v>339</v>
+      </c>
+      <c r="E262" t="s">
+        <v>342</v>
+      </c>
+      <c r="F262" t="s">
+        <v>342</v>
+      </c>
+      <c r="G262" t="s">
+        <v>330</v>
+      </c>
+      <c r="H262" t="s">
+        <v>330</v>
+      </c>
+      <c r="I262" t="s">
+        <v>330</v>
+      </c>
+      <c r="J262" t="s">
+        <v>334</v>
+      </c>
+      <c r="K262" t="s">
+        <v>335</v>
+      </c>
+      <c r="L262" t="s">
+        <v>335</v>
+      </c>
+      <c r="M262" t="s">
+        <v>346</v>
+      </c>
+      <c r="N262" t="s">
+        <v>347</v>
+      </c>
+      <c r="O262" t="s">
+        <v>348</v>
+      </c>
+      <c r="P262" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>352</v>
+      </c>
+      <c r="R262" t="s">
+        <v>353</v>
+      </c>
+      <c r="S262" t="s">
+        <v>354</v>
+      </c>
+      <c r="T262" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A263" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.874999999949</v>
+      </c>
+      <c r="B263" t="s">
+        <v>339</v>
+      </c>
+      <c r="C263" t="s">
+        <v>336</v>
+      </c>
+      <c r="D263" t="s">
+        <v>339</v>
+      </c>
+      <c r="E263" t="s">
+        <v>342</v>
+      </c>
+      <c r="F263" t="s">
+        <v>342</v>
+      </c>
+      <c r="G263" t="s">
+        <v>330</v>
+      </c>
+      <c r="H263" t="s">
+        <v>330</v>
+      </c>
+      <c r="I263" t="s">
+        <v>330</v>
+      </c>
+      <c r="J263" t="s">
+        <v>334</v>
+      </c>
+      <c r="K263" t="s">
+        <v>335</v>
+      </c>
+      <c r="L263" t="s">
+        <v>335</v>
+      </c>
+      <c r="M263" t="s">
+        <v>346</v>
+      </c>
+      <c r="N263" t="s">
+        <v>347</v>
+      </c>
+      <c r="O263" t="s">
+        <v>348</v>
+      </c>
+      <c r="P263" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>352</v>
+      </c>
+      <c r="R263" t="s">
+        <v>353</v>
+      </c>
+      <c r="S263" t="s">
+        <v>354</v>
+      </c>
+      <c r="T263" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A264" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.916666666613</v>
+      </c>
+      <c r="B264" t="s">
+        <v>339</v>
+      </c>
+      <c r="C264" t="s">
+        <v>336</v>
+      </c>
+      <c r="D264" t="s">
+        <v>339</v>
+      </c>
+      <c r="E264" t="s">
+        <v>342</v>
+      </c>
+      <c r="F264" t="s">
+        <v>342</v>
+      </c>
+      <c r="G264" t="s">
+        <v>330</v>
+      </c>
+      <c r="H264" t="s">
+        <v>330</v>
+      </c>
+      <c r="I264" t="s">
+        <v>330</v>
+      </c>
+      <c r="J264" t="s">
+        <v>334</v>
+      </c>
+      <c r="K264" t="s">
+        <v>335</v>
+      </c>
+      <c r="L264" t="s">
+        <v>335</v>
+      </c>
+      <c r="M264" t="s">
+        <v>346</v>
+      </c>
+      <c r="N264" t="s">
+        <v>347</v>
+      </c>
+      <c r="O264" t="s">
+        <v>348</v>
+      </c>
+      <c r="P264" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>352</v>
+      </c>
+      <c r="R264" t="s">
+        <v>353</v>
+      </c>
+      <c r="S264" t="s">
+        <v>354</v>
+      </c>
+      <c r="T264" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A265" s="17">
+        <f t="shared" si="6"/>
+        <v>43586.958333333278</v>
+      </c>
+      <c r="B265" t="s">
+        <v>339</v>
+      </c>
+      <c r="C265" t="s">
+        <v>336</v>
+      </c>
+      <c r="D265" t="s">
+        <v>339</v>
+      </c>
+      <c r="E265" t="s">
+        <v>342</v>
+      </c>
+      <c r="F265" t="s">
+        <v>342</v>
+      </c>
+      <c r="G265" t="s">
+        <v>330</v>
+      </c>
+      <c r="H265" t="s">
+        <v>330</v>
+      </c>
+      <c r="I265" t="s">
+        <v>330</v>
+      </c>
+      <c r="J265" t="s">
+        <v>334</v>
+      </c>
+      <c r="K265" t="s">
+        <v>335</v>
+      </c>
+      <c r="L265" t="s">
+        <v>335</v>
+      </c>
+      <c r="M265" t="s">
+        <v>346</v>
+      </c>
+      <c r="N265" t="s">
+        <v>347</v>
+      </c>
+      <c r="O265" t="s">
+        <v>348</v>
+      </c>
+      <c r="P265" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>352</v>
+      </c>
+      <c r="R265" t="s">
+        <v>353</v>
+      </c>
+      <c r="S265" t="s">
+        <v>354</v>
+      </c>
+      <c r="T265" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A266" s="18">
+        <v>43743</v>
+      </c>
+      <c r="B266" t="s">
+        <v>339</v>
+      </c>
+      <c r="C266" t="s">
+        <v>336</v>
+      </c>
+      <c r="D266" t="s">
+        <v>339</v>
+      </c>
+      <c r="E266" t="s">
+        <v>342</v>
+      </c>
+      <c r="F266" t="s">
+        <v>342</v>
+      </c>
+      <c r="G266" t="s">
+        <v>330</v>
+      </c>
+      <c r="H266" t="s">
+        <v>330</v>
+      </c>
+      <c r="I266" t="s">
+        <v>330</v>
+      </c>
+      <c r="J266" t="s">
+        <v>334</v>
+      </c>
+      <c r="K266" t="s">
+        <v>335</v>
+      </c>
+      <c r="L266" t="s">
+        <v>335</v>
+      </c>
+      <c r="M266" t="s">
+        <v>346</v>
+      </c>
+      <c r="N266" t="s">
+        <v>347</v>
+      </c>
+      <c r="O266" t="s">
+        <v>348</v>
+      </c>
+      <c r="P266" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>352</v>
+      </c>
+      <c r="R266" t="s">
+        <v>353</v>
+      </c>
+      <c r="S266" t="s">
+        <v>354</v>
+      </c>
+      <c r="T266" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A267" s="18">
+        <f>A266+1/24</f>
+        <v>43743.041666666664</v>
+      </c>
+      <c r="B267" t="s">
+        <v>339</v>
+      </c>
+      <c r="C267" t="s">
+        <v>336</v>
+      </c>
+      <c r="D267" t="s">
+        <v>339</v>
+      </c>
+      <c r="E267" t="s">
+        <v>342</v>
+      </c>
+      <c r="F267" t="s">
+        <v>342</v>
+      </c>
+      <c r="G267" t="s">
+        <v>330</v>
+      </c>
+      <c r="H267" t="s">
+        <v>330</v>
+      </c>
+      <c r="I267" t="s">
+        <v>330</v>
+      </c>
+      <c r="J267" t="s">
+        <v>334</v>
+      </c>
+      <c r="K267" t="s">
+        <v>335</v>
+      </c>
+      <c r="L267" t="s">
+        <v>335</v>
+      </c>
+      <c r="M267" t="s">
+        <v>346</v>
+      </c>
+      <c r="N267" t="s">
+        <v>347</v>
+      </c>
+      <c r="O267" t="s">
+        <v>348</v>
+      </c>
+      <c r="P267" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>352</v>
+      </c>
+      <c r="R267" t="s">
+        <v>353</v>
+      </c>
+      <c r="S267" t="s">
+        <v>354</v>
+      </c>
+      <c r="T267" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A268" s="18">
+        <f t="shared" ref="A268:A289" si="7">A267+1/24</f>
+        <v>43743.083333333328</v>
+      </c>
+      <c r="B268" t="s">
+        <v>339</v>
+      </c>
+      <c r="C268" t="s">
+        <v>336</v>
+      </c>
+      <c r="D268" t="s">
+        <v>339</v>
+      </c>
+      <c r="E268" t="s">
+        <v>342</v>
+      </c>
+      <c r="F268" t="s">
+        <v>342</v>
+      </c>
+      <c r="G268" t="s">
+        <v>330</v>
+      </c>
+      <c r="H268" t="s">
+        <v>330</v>
+      </c>
+      <c r="I268" t="s">
+        <v>330</v>
+      </c>
+      <c r="J268" t="s">
+        <v>334</v>
+      </c>
+      <c r="K268" t="s">
+        <v>335</v>
+      </c>
+      <c r="L268" t="s">
+        <v>335</v>
+      </c>
+      <c r="M268" t="s">
+        <v>346</v>
+      </c>
+      <c r="N268" t="s">
+        <v>347</v>
+      </c>
+      <c r="O268" t="s">
+        <v>348</v>
+      </c>
+      <c r="P268" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>352</v>
+      </c>
+      <c r="R268" t="s">
+        <v>353</v>
+      </c>
+      <c r="S268" t="s">
+        <v>354</v>
+      </c>
+      <c r="T268" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A269" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.124999999993</v>
+      </c>
+      <c r="B269" t="s">
+        <v>339</v>
+      </c>
+      <c r="C269" t="s">
+        <v>336</v>
+      </c>
+      <c r="D269" t="s">
+        <v>339</v>
+      </c>
+      <c r="E269" t="s">
+        <v>342</v>
+      </c>
+      <c r="F269" t="s">
+        <v>342</v>
+      </c>
+      <c r="G269" t="s">
+        <v>330</v>
+      </c>
+      <c r="H269" t="s">
+        <v>330</v>
+      </c>
+      <c r="I269" t="s">
+        <v>330</v>
+      </c>
+      <c r="J269" t="s">
+        <v>334</v>
+      </c>
+      <c r="K269" t="s">
+        <v>335</v>
+      </c>
+      <c r="L269" t="s">
+        <v>335</v>
+      </c>
+      <c r="M269" t="s">
+        <v>346</v>
+      </c>
+      <c r="N269" t="s">
+        <v>347</v>
+      </c>
+      <c r="O269" t="s">
+        <v>348</v>
+      </c>
+      <c r="P269" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>352</v>
+      </c>
+      <c r="R269" t="s">
+        <v>353</v>
+      </c>
+      <c r="S269" t="s">
+        <v>354</v>
+      </c>
+      <c r="T269" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A270" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.166666666657</v>
+      </c>
+      <c r="B270" t="s">
+        <v>339</v>
+      </c>
+      <c r="C270" t="s">
+        <v>336</v>
+      </c>
+      <c r="D270" t="s">
+        <v>339</v>
+      </c>
+      <c r="E270" t="s">
+        <v>342</v>
+      </c>
+      <c r="F270" t="s">
+        <v>342</v>
+      </c>
+      <c r="G270" t="s">
+        <v>330</v>
+      </c>
+      <c r="H270" t="s">
+        <v>330</v>
+      </c>
+      <c r="I270" t="s">
+        <v>330</v>
+      </c>
+      <c r="J270" t="s">
+        <v>334</v>
+      </c>
+      <c r="K270" t="s">
+        <v>335</v>
+      </c>
+      <c r="L270" t="s">
+        <v>335</v>
+      </c>
+      <c r="M270" t="s">
+        <v>346</v>
+      </c>
+      <c r="N270" t="s">
+        <v>347</v>
+      </c>
+      <c r="O270" t="s">
+        <v>348</v>
+      </c>
+      <c r="P270" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>352</v>
+      </c>
+      <c r="R270" t="s">
+        <v>353</v>
+      </c>
+      <c r="S270" t="s">
+        <v>354</v>
+      </c>
+      <c r="T270" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A271" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.208333333321</v>
+      </c>
+      <c r="B271" t="s">
+        <v>339</v>
+      </c>
+      <c r="C271" t="s">
+        <v>336</v>
+      </c>
+      <c r="D271" t="s">
+        <v>339</v>
+      </c>
+      <c r="E271" t="s">
+        <v>342</v>
+      </c>
+      <c r="F271" t="s">
+        <v>342</v>
+      </c>
+      <c r="G271" t="s">
+        <v>330</v>
+      </c>
+      <c r="H271" t="s">
+        <v>330</v>
+      </c>
+      <c r="I271" t="s">
+        <v>330</v>
+      </c>
+      <c r="J271" t="s">
+        <v>334</v>
+      </c>
+      <c r="K271" t="s">
+        <v>335</v>
+      </c>
+      <c r="L271" t="s">
+        <v>335</v>
+      </c>
+      <c r="M271" t="s">
+        <v>346</v>
+      </c>
+      <c r="N271" t="s">
+        <v>347</v>
+      </c>
+      <c r="O271" t="s">
+        <v>348</v>
+      </c>
+      <c r="P271" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>352</v>
+      </c>
+      <c r="R271" t="s">
+        <v>353</v>
+      </c>
+      <c r="S271" t="s">
+        <v>354</v>
+      </c>
+      <c r="T271" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A272" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.249999999985</v>
+      </c>
+      <c r="B272" t="s">
+        <v>339</v>
+      </c>
+      <c r="C272" t="s">
+        <v>336</v>
+      </c>
+      <c r="D272" t="s">
+        <v>339</v>
+      </c>
+      <c r="E272" t="s">
+        <v>342</v>
+      </c>
+      <c r="F272" t="s">
+        <v>342</v>
+      </c>
+      <c r="G272" t="s">
+        <v>330</v>
+      </c>
+      <c r="H272" t="s">
+        <v>330</v>
+      </c>
+      <c r="I272" t="s">
+        <v>330</v>
+      </c>
+      <c r="J272" t="s">
+        <v>334</v>
+      </c>
+      <c r="K272" t="s">
+        <v>335</v>
+      </c>
+      <c r="L272" t="s">
+        <v>335</v>
+      </c>
+      <c r="M272" t="s">
+        <v>346</v>
+      </c>
+      <c r="N272" t="s">
+        <v>347</v>
+      </c>
+      <c r="O272" t="s">
+        <v>348</v>
+      </c>
+      <c r="P272" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>352</v>
+      </c>
+      <c r="R272" t="s">
+        <v>353</v>
+      </c>
+      <c r="S272" t="s">
+        <v>354</v>
+      </c>
+      <c r="T272" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A273" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.29166666665</v>
+      </c>
+      <c r="B273" t="s">
+        <v>339</v>
+      </c>
+      <c r="C273" t="s">
+        <v>336</v>
+      </c>
+      <c r="D273" t="s">
+        <v>339</v>
+      </c>
+      <c r="E273" t="s">
+        <v>342</v>
+      </c>
+      <c r="F273" t="s">
+        <v>342</v>
+      </c>
+      <c r="G273" t="s">
+        <v>330</v>
+      </c>
+      <c r="H273" t="s">
+        <v>330</v>
+      </c>
+      <c r="I273" t="s">
+        <v>330</v>
+      </c>
+      <c r="J273" t="s">
+        <v>334</v>
+      </c>
+      <c r="K273" t="s">
+        <v>335</v>
+      </c>
+      <c r="L273" t="s">
+        <v>335</v>
+      </c>
+      <c r="M273" t="s">
+        <v>346</v>
+      </c>
+      <c r="N273" t="s">
+        <v>347</v>
+      </c>
+      <c r="O273" t="s">
+        <v>348</v>
+      </c>
+      <c r="P273" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>352</v>
+      </c>
+      <c r="R273" t="s">
+        <v>353</v>
+      </c>
+      <c r="S273" t="s">
+        <v>354</v>
+      </c>
+      <c r="T273" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A274" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.333333333314</v>
+      </c>
+      <c r="B274" t="s">
+        <v>339</v>
+      </c>
+      <c r="C274" t="s">
+        <v>336</v>
+      </c>
+      <c r="D274" t="s">
+        <v>339</v>
+      </c>
+      <c r="E274" t="s">
+        <v>342</v>
+      </c>
+      <c r="F274" t="s">
+        <v>342</v>
+      </c>
+      <c r="G274" t="s">
+        <v>330</v>
+      </c>
+      <c r="H274" t="s">
+        <v>330</v>
+      </c>
+      <c r="I274" t="s">
+        <v>330</v>
+      </c>
+      <c r="J274" t="s">
+        <v>334</v>
+      </c>
+      <c r="K274" t="s">
+        <v>335</v>
+      </c>
+      <c r="L274" t="s">
+        <v>335</v>
+      </c>
+      <c r="M274" t="s">
+        <v>346</v>
+      </c>
+      <c r="N274" t="s">
+        <v>347</v>
+      </c>
+      <c r="O274" t="s">
+        <v>348</v>
+      </c>
+      <c r="P274" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>352</v>
+      </c>
+      <c r="R274" t="s">
+        <v>353</v>
+      </c>
+      <c r="S274" t="s">
+        <v>354</v>
+      </c>
+      <c r="T274" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A275" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.374999999978</v>
+      </c>
+      <c r="B275" t="s">
+        <v>339</v>
+      </c>
+      <c r="C275" t="s">
+        <v>336</v>
+      </c>
+      <c r="D275" t="s">
+        <v>339</v>
+      </c>
+      <c r="E275" t="s">
+        <v>342</v>
+      </c>
+      <c r="F275" t="s">
+        <v>342</v>
+      </c>
+      <c r="G275" t="s">
+        <v>330</v>
+      </c>
+      <c r="H275" t="s">
+        <v>330</v>
+      </c>
+      <c r="I275" t="s">
+        <v>330</v>
+      </c>
+      <c r="J275" t="s">
+        <v>334</v>
+      </c>
+      <c r="K275" t="s">
+        <v>335</v>
+      </c>
+      <c r="L275" t="s">
+        <v>335</v>
+      </c>
+      <c r="M275" t="s">
+        <v>346</v>
+      </c>
+      <c r="N275" t="s">
+        <v>347</v>
+      </c>
+      <c r="O275" t="s">
+        <v>348</v>
+      </c>
+      <c r="P275" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>352</v>
+      </c>
+      <c r="R275" t="s">
+        <v>353</v>
+      </c>
+      <c r="S275" t="s">
+        <v>354</v>
+      </c>
+      <c r="T275" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A276" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.416666666642</v>
+      </c>
+      <c r="B276" t="s">
+        <v>339</v>
+      </c>
+      <c r="C276" t="s">
+        <v>336</v>
+      </c>
+      <c r="D276" t="s">
+        <v>339</v>
+      </c>
+      <c r="E276" t="s">
+        <v>342</v>
+      </c>
+      <c r="F276" t="s">
+        <v>342</v>
+      </c>
+      <c r="G276" t="s">
+        <v>330</v>
+      </c>
+      <c r="H276" t="s">
+        <v>330</v>
+      </c>
+      <c r="I276" t="s">
+        <v>330</v>
+      </c>
+      <c r="J276" t="s">
+        <v>334</v>
+      </c>
+      <c r="K276" t="s">
+        <v>335</v>
+      </c>
+      <c r="L276" t="s">
+        <v>335</v>
+      </c>
+      <c r="M276" t="s">
+        <v>346</v>
+      </c>
+      <c r="N276" t="s">
+        <v>347</v>
+      </c>
+      <c r="O276" t="s">
+        <v>348</v>
+      </c>
+      <c r="P276" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>352</v>
+      </c>
+      <c r="R276" t="s">
+        <v>353</v>
+      </c>
+      <c r="S276" t="s">
+        <v>354</v>
+      </c>
+      <c r="T276" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A277" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.458333333307</v>
+      </c>
+      <c r="B277" t="s">
+        <v>339</v>
+      </c>
+      <c r="C277" t="s">
+        <v>336</v>
+      </c>
+      <c r="D277" t="s">
+        <v>339</v>
+      </c>
+      <c r="E277" t="s">
+        <v>342</v>
+      </c>
+      <c r="F277" t="s">
+        <v>342</v>
+      </c>
+      <c r="G277" t="s">
+        <v>330</v>
+      </c>
+      <c r="H277" t="s">
+        <v>330</v>
+      </c>
+      <c r="I277" t="s">
+        <v>330</v>
+      </c>
+      <c r="J277" t="s">
+        <v>334</v>
+      </c>
+      <c r="K277" t="s">
+        <v>335</v>
+      </c>
+      <c r="L277" t="s">
+        <v>335</v>
+      </c>
+      <c r="M277" t="s">
+        <v>346</v>
+      </c>
+      <c r="N277" t="s">
+        <v>347</v>
+      </c>
+      <c r="O277" t="s">
+        <v>348</v>
+      </c>
+      <c r="P277" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>352</v>
+      </c>
+      <c r="R277" t="s">
+        <v>353</v>
+      </c>
+      <c r="S277" t="s">
+        <v>354</v>
+      </c>
+      <c r="T277" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A278" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.499999999971</v>
+      </c>
+      <c r="B278" t="s">
+        <v>339</v>
+      </c>
+      <c r="C278" t="s">
+        <v>336</v>
+      </c>
+      <c r="D278" t="s">
+        <v>339</v>
+      </c>
+      <c r="E278" t="s">
+        <v>342</v>
+      </c>
+      <c r="F278" t="s">
+        <v>342</v>
+      </c>
+      <c r="G278" t="s">
+        <v>330</v>
+      </c>
+      <c r="H278" t="s">
+        <v>330</v>
+      </c>
+      <c r="I278" t="s">
+        <v>330</v>
+      </c>
+      <c r="J278" t="s">
+        <v>334</v>
+      </c>
+      <c r="K278" t="s">
+        <v>335</v>
+      </c>
+      <c r="L278" t="s">
+        <v>335</v>
+      </c>
+      <c r="M278" t="s">
+        <v>346</v>
+      </c>
+      <c r="N278" t="s">
+        <v>347</v>
+      </c>
+      <c r="O278" t="s">
+        <v>348</v>
+      </c>
+      <c r="P278" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>352</v>
+      </c>
+      <c r="R278" t="s">
+        <v>353</v>
+      </c>
+      <c r="S278" t="s">
+        <v>354</v>
+      </c>
+      <c r="T278" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A279" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.541666666635</v>
+      </c>
+      <c r="B279" t="s">
+        <v>339</v>
+      </c>
+      <c r="C279" t="s">
+        <v>336</v>
+      </c>
+      <c r="D279" t="s">
+        <v>339</v>
+      </c>
+      <c r="E279" t="s">
+        <v>342</v>
+      </c>
+      <c r="F279" t="s">
+        <v>342</v>
+      </c>
+      <c r="G279" t="s">
+        <v>330</v>
+      </c>
+      <c r="H279" t="s">
+        <v>330</v>
+      </c>
+      <c r="I279" t="s">
+        <v>330</v>
+      </c>
+      <c r="J279" t="s">
+        <v>334</v>
+      </c>
+      <c r="K279" t="s">
+        <v>335</v>
+      </c>
+      <c r="L279" t="s">
+        <v>335</v>
+      </c>
+      <c r="M279" t="s">
+        <v>346</v>
+      </c>
+      <c r="N279" t="s">
+        <v>347</v>
+      </c>
+      <c r="O279" t="s">
+        <v>348</v>
+      </c>
+      <c r="P279" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>352</v>
+      </c>
+      <c r="R279" t="s">
+        <v>353</v>
+      </c>
+      <c r="S279" t="s">
+        <v>354</v>
+      </c>
+      <c r="T279" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A280" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.583333333299</v>
+      </c>
+      <c r="B280" t="s">
+        <v>339</v>
+      </c>
+      <c r="C280" t="s">
+        <v>336</v>
+      </c>
+      <c r="D280" t="s">
+        <v>339</v>
+      </c>
+      <c r="E280" t="s">
+        <v>342</v>
+      </c>
+      <c r="F280" t="s">
+        <v>342</v>
+      </c>
+      <c r="G280" t="s">
+        <v>330</v>
+      </c>
+      <c r="H280" t="s">
+        <v>330</v>
+      </c>
+      <c r="I280" t="s">
+        <v>330</v>
+      </c>
+      <c r="J280" t="s">
+        <v>334</v>
+      </c>
+      <c r="K280" t="s">
+        <v>335</v>
+      </c>
+      <c r="L280" t="s">
+        <v>335</v>
+      </c>
+      <c r="M280" t="s">
+        <v>346</v>
+      </c>
+      <c r="N280" t="s">
+        <v>347</v>
+      </c>
+      <c r="O280" t="s">
+        <v>348</v>
+      </c>
+      <c r="P280" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>352</v>
+      </c>
+      <c r="R280" t="s">
+        <v>353</v>
+      </c>
+      <c r="S280" t="s">
+        <v>354</v>
+      </c>
+      <c r="T280" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A281" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.624999999964</v>
+      </c>
+      <c r="B281" t="s">
+        <v>339</v>
+      </c>
+      <c r="C281" t="s">
+        <v>336</v>
+      </c>
+      <c r="D281" t="s">
+        <v>339</v>
+      </c>
+      <c r="E281" t="s">
+        <v>342</v>
+      </c>
+      <c r="F281" t="s">
+        <v>342</v>
+      </c>
+      <c r="G281" t="s">
+        <v>330</v>
+      </c>
+      <c r="H281" t="s">
+        <v>330</v>
+      </c>
+      <c r="I281" t="s">
+        <v>330</v>
+      </c>
+      <c r="J281" t="s">
+        <v>334</v>
+      </c>
+      <c r="K281" t="s">
+        <v>335</v>
+      </c>
+      <c r="L281" t="s">
+        <v>335</v>
+      </c>
+      <c r="M281" t="s">
+        <v>346</v>
+      </c>
+      <c r="N281" t="s">
+        <v>347</v>
+      </c>
+      <c r="O281" t="s">
+        <v>348</v>
+      </c>
+      <c r="P281" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>352</v>
+      </c>
+      <c r="R281" t="s">
+        <v>353</v>
+      </c>
+      <c r="S281" t="s">
+        <v>354</v>
+      </c>
+      <c r="T281" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A282" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.666666666628</v>
+      </c>
+      <c r="B282" t="s">
+        <v>339</v>
+      </c>
+      <c r="C282" t="s">
+        <v>336</v>
+      </c>
+      <c r="D282" t="s">
+        <v>339</v>
+      </c>
+      <c r="E282" t="s">
+        <v>342</v>
+      </c>
+      <c r="F282" t="s">
+        <v>342</v>
+      </c>
+      <c r="G282" t="s">
+        <v>330</v>
+      </c>
+      <c r="H282" t="s">
+        <v>330</v>
+      </c>
+      <c r="I282" t="s">
+        <v>330</v>
+      </c>
+      <c r="J282" t="s">
+        <v>334</v>
+      </c>
+      <c r="K282" t="s">
+        <v>335</v>
+      </c>
+      <c r="L282" t="s">
+        <v>335</v>
+      </c>
+      <c r="M282" t="s">
+        <v>346</v>
+      </c>
+      <c r="N282" t="s">
+        <v>347</v>
+      </c>
+      <c r="O282" t="s">
+        <v>348</v>
+      </c>
+      <c r="P282" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>352</v>
+      </c>
+      <c r="R282" t="s">
+        <v>353</v>
+      </c>
+      <c r="S282" t="s">
+        <v>354</v>
+      </c>
+      <c r="T282" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A283" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.708333333292</v>
+      </c>
+      <c r="B283" t="s">
+        <v>339</v>
+      </c>
+      <c r="C283" t="s">
+        <v>336</v>
+      </c>
+      <c r="D283" t="s">
+        <v>339</v>
+      </c>
+      <c r="E283" t="s">
+        <v>342</v>
+      </c>
+      <c r="F283" t="s">
+        <v>342</v>
+      </c>
+      <c r="G283" t="s">
+        <v>330</v>
+      </c>
+      <c r="H283" t="s">
+        <v>330</v>
+      </c>
+      <c r="I283" t="s">
+        <v>330</v>
+      </c>
+      <c r="J283" t="s">
+        <v>334</v>
+      </c>
+      <c r="K283" t="s">
+        <v>335</v>
+      </c>
+      <c r="L283" t="s">
+        <v>335</v>
+      </c>
+      <c r="M283" t="s">
+        <v>346</v>
+      </c>
+      <c r="N283" t="s">
+        <v>347</v>
+      </c>
+      <c r="O283" t="s">
+        <v>348</v>
+      </c>
+      <c r="P283" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>352</v>
+      </c>
+      <c r="R283" t="s">
+        <v>353</v>
+      </c>
+      <c r="S283" t="s">
+        <v>354</v>
+      </c>
+      <c r="T283" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A284" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.749999999956</v>
+      </c>
+      <c r="B284" t="s">
+        <v>339</v>
+      </c>
+      <c r="C284" t="s">
+        <v>336</v>
+      </c>
+      <c r="D284" t="s">
+        <v>339</v>
+      </c>
+      <c r="E284" t="s">
+        <v>342</v>
+      </c>
+      <c r="F284" t="s">
+        <v>342</v>
+      </c>
+      <c r="G284" t="s">
+        <v>330</v>
+      </c>
+      <c r="H284" t="s">
+        <v>330</v>
+      </c>
+      <c r="I284" t="s">
+        <v>330</v>
+      </c>
+      <c r="J284" t="s">
+        <v>334</v>
+      </c>
+      <c r="K284" t="s">
+        <v>335</v>
+      </c>
+      <c r="L284" t="s">
+        <v>335</v>
+      </c>
+      <c r="M284" t="s">
+        <v>346</v>
+      </c>
+      <c r="N284" t="s">
+        <v>347</v>
+      </c>
+      <c r="O284" t="s">
+        <v>348</v>
+      </c>
+      <c r="P284" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>352</v>
+      </c>
+      <c r="R284" t="s">
+        <v>353</v>
+      </c>
+      <c r="S284" t="s">
+        <v>354</v>
+      </c>
+      <c r="T284" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A285" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.791666666621</v>
+      </c>
+      <c r="B285" t="s">
+        <v>339</v>
+      </c>
+      <c r="C285" t="s">
+        <v>336</v>
+      </c>
+      <c r="D285" t="s">
+        <v>339</v>
+      </c>
+      <c r="E285" t="s">
+        <v>342</v>
+      </c>
+      <c r="F285" t="s">
+        <v>342</v>
+      </c>
+      <c r="G285" t="s">
+        <v>330</v>
+      </c>
+      <c r="H285" t="s">
+        <v>330</v>
+      </c>
+      <c r="I285" t="s">
+        <v>330</v>
+      </c>
+      <c r="J285" t="s">
+        <v>334</v>
+      </c>
+      <c r="K285" t="s">
+        <v>335</v>
+      </c>
+      <c r="L285" t="s">
+        <v>335</v>
+      </c>
+      <c r="M285" t="s">
+        <v>346</v>
+      </c>
+      <c r="N285" t="s">
+        <v>347</v>
+      </c>
+      <c r="O285" t="s">
+        <v>348</v>
+      </c>
+      <c r="P285" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>352</v>
+      </c>
+      <c r="R285" t="s">
+        <v>353</v>
+      </c>
+      <c r="S285" t="s">
+        <v>354</v>
+      </c>
+      <c r="T285" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A286" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.833333333285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>339</v>
+      </c>
+      <c r="C286" t="s">
+        <v>336</v>
+      </c>
+      <c r="D286" t="s">
+        <v>339</v>
+      </c>
+      <c r="E286" t="s">
+        <v>342</v>
+      </c>
+      <c r="F286" t="s">
+        <v>342</v>
+      </c>
+      <c r="G286" t="s">
+        <v>330</v>
+      </c>
+      <c r="H286" t="s">
+        <v>330</v>
+      </c>
+      <c r="I286" t="s">
+        <v>330</v>
+      </c>
+      <c r="J286" t="s">
+        <v>334</v>
+      </c>
+      <c r="K286" t="s">
+        <v>335</v>
+      </c>
+      <c r="L286" t="s">
+        <v>335</v>
+      </c>
+      <c r="M286" t="s">
+        <v>346</v>
+      </c>
+      <c r="N286" t="s">
+        <v>347</v>
+      </c>
+      <c r="O286" t="s">
+        <v>348</v>
+      </c>
+      <c r="P286" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>352</v>
+      </c>
+      <c r="R286" t="s">
+        <v>353</v>
+      </c>
+      <c r="S286" t="s">
+        <v>354</v>
+      </c>
+      <c r="T286" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A287" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.874999999949</v>
+      </c>
+      <c r="B287" t="s">
+        <v>339</v>
+      </c>
+      <c r="C287" t="s">
+        <v>336</v>
+      </c>
+      <c r="D287" t="s">
+        <v>339</v>
+      </c>
+      <c r="E287" t="s">
+        <v>342</v>
+      </c>
+      <c r="F287" t="s">
+        <v>342</v>
+      </c>
+      <c r="G287" t="s">
+        <v>330</v>
+      </c>
+      <c r="H287" t="s">
+        <v>330</v>
+      </c>
+      <c r="I287" t="s">
+        <v>330</v>
+      </c>
+      <c r="J287" t="s">
+        <v>334</v>
+      </c>
+      <c r="K287" t="s">
+        <v>335</v>
+      </c>
+      <c r="L287" t="s">
+        <v>335</v>
+      </c>
+      <c r="M287" t="s">
+        <v>346</v>
+      </c>
+      <c r="N287" t="s">
+        <v>347</v>
+      </c>
+      <c r="O287" t="s">
+        <v>348</v>
+      </c>
+      <c r="P287" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>352</v>
+      </c>
+      <c r="R287" t="s">
+        <v>353</v>
+      </c>
+      <c r="S287" t="s">
+        <v>354</v>
+      </c>
+      <c r="T287" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A288" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.916666666613</v>
+      </c>
+      <c r="B288" t="s">
+        <v>339</v>
+      </c>
+      <c r="C288" t="s">
+        <v>336</v>
+      </c>
+      <c r="D288" t="s">
+        <v>339</v>
+      </c>
+      <c r="E288" t="s">
+        <v>342</v>
+      </c>
+      <c r="F288" t="s">
+        <v>342</v>
+      </c>
+      <c r="G288" t="s">
+        <v>330</v>
+      </c>
+      <c r="H288" t="s">
+        <v>330</v>
+      </c>
+      <c r="I288" t="s">
+        <v>330</v>
+      </c>
+      <c r="J288" t="s">
+        <v>334</v>
+      </c>
+      <c r="K288" t="s">
+        <v>335</v>
+      </c>
+      <c r="L288" t="s">
+        <v>335</v>
+      </c>
+      <c r="M288" t="s">
+        <v>346</v>
+      </c>
+      <c r="N288" t="s">
+        <v>347</v>
+      </c>
+      <c r="O288" t="s">
+        <v>348</v>
+      </c>
+      <c r="P288" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>352</v>
+      </c>
+      <c r="R288" t="s">
+        <v>353</v>
+      </c>
+      <c r="S288" t="s">
+        <v>354</v>
+      </c>
+      <c r="T288" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A289" s="18">
+        <f t="shared" si="7"/>
+        <v>43743.958333333278</v>
+      </c>
+      <c r="B289" t="s">
+        <v>339</v>
+      </c>
+      <c r="C289" t="s">
+        <v>336</v>
+      </c>
+      <c r="D289" t="s">
+        <v>339</v>
+      </c>
+      <c r="E289" t="s">
+        <v>342</v>
+      </c>
+      <c r="F289" t="s">
+        <v>342</v>
+      </c>
+      <c r="G289" t="s">
+        <v>330</v>
+      </c>
+      <c r="H289" t="s">
+        <v>330</v>
+      </c>
+      <c r="I289" t="s">
+        <v>330</v>
+      </c>
+      <c r="J289" t="s">
+        <v>334</v>
+      </c>
+      <c r="K289" t="s">
+        <v>335</v>
+      </c>
+      <c r="L289" t="s">
+        <v>335</v>
+      </c>
+      <c r="M289" t="s">
+        <v>346</v>
+      </c>
+      <c r="N289" t="s">
+        <v>347</v>
+      </c>
+      <c r="O289" t="s">
+        <v>348</v>
+      </c>
+      <c r="P289" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>352</v>
+      </c>
+      <c r="R289" t="s">
+        <v>353</v>
+      </c>
+      <c r="S289" t="s">
+        <v>354</v>
+      </c>
+      <c r="T289" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A290" s="18">
+        <v>43498</v>
+      </c>
+      <c r="B290" t="s">
+        <v>339</v>
+      </c>
+      <c r="C290" t="s">
+        <v>336</v>
+      </c>
+      <c r="D290" t="s">
+        <v>339</v>
+      </c>
+      <c r="E290" t="s">
+        <v>342</v>
+      </c>
+      <c r="F290" t="s">
+        <v>342</v>
+      </c>
+      <c r="G290" t="s">
+        <v>330</v>
+      </c>
+      <c r="H290" t="s">
+        <v>330</v>
+      </c>
+      <c r="I290" t="s">
+        <v>330</v>
+      </c>
+      <c r="J290" t="s">
+        <v>334</v>
+      </c>
+      <c r="K290" t="s">
+        <v>335</v>
+      </c>
+      <c r="L290" t="s">
+        <v>335</v>
+      </c>
+      <c r="M290" t="s">
+        <v>346</v>
+      </c>
+      <c r="N290" t="s">
+        <v>347</v>
+      </c>
+      <c r="O290" t="s">
+        <v>348</v>
+      </c>
+      <c r="P290" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>352</v>
+      </c>
+      <c r="R290" t="s">
+        <v>353</v>
+      </c>
+      <c r="S290" t="s">
+        <v>354</v>
+      </c>
+      <c r="T290" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A291" s="18">
+        <f>A290+1/24</f>
+        <v>43498.041666666664</v>
+      </c>
+      <c r="B291" t="s">
+        <v>339</v>
+      </c>
+      <c r="C291" t="s">
+        <v>336</v>
+      </c>
+      <c r="D291" t="s">
+        <v>339</v>
+      </c>
+      <c r="E291" t="s">
+        <v>342</v>
+      </c>
+      <c r="F291" t="s">
+        <v>342</v>
+      </c>
+      <c r="G291" t="s">
+        <v>330</v>
+      </c>
+      <c r="H291" t="s">
+        <v>330</v>
+      </c>
+      <c r="I291" t="s">
+        <v>330</v>
+      </c>
+      <c r="J291" t="s">
+        <v>334</v>
+      </c>
+      <c r="K291" t="s">
+        <v>335</v>
+      </c>
+      <c r="L291" t="s">
+        <v>335</v>
+      </c>
+      <c r="M291" t="s">
+        <v>346</v>
+      </c>
+      <c r="N291" t="s">
+        <v>347</v>
+      </c>
+      <c r="O291" t="s">
+        <v>348</v>
+      </c>
+      <c r="P291" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>352</v>
+      </c>
+      <c r="R291" t="s">
+        <v>353</v>
+      </c>
+      <c r="S291" t="s">
+        <v>354</v>
+      </c>
+      <c r="T291" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A292" s="18">
+        <f t="shared" ref="A292:A313" si="8">A291+1/24</f>
+        <v>43498.083333333328</v>
+      </c>
+      <c r="B292" t="s">
+        <v>339</v>
+      </c>
+      <c r="C292" t="s">
+        <v>336</v>
+      </c>
+      <c r="D292" t="s">
+        <v>339</v>
+      </c>
+      <c r="E292" t="s">
+        <v>342</v>
+      </c>
+      <c r="F292" t="s">
+        <v>342</v>
+      </c>
+      <c r="G292" t="s">
+        <v>330</v>
+      </c>
+      <c r="H292" t="s">
+        <v>330</v>
+      </c>
+      <c r="I292" t="s">
+        <v>330</v>
+      </c>
+      <c r="J292" t="s">
+        <v>334</v>
+      </c>
+      <c r="K292" t="s">
+        <v>335</v>
+      </c>
+      <c r="L292" t="s">
+        <v>335</v>
+      </c>
+      <c r="M292" t="s">
+        <v>346</v>
+      </c>
+      <c r="N292" t="s">
+        <v>347</v>
+      </c>
+      <c r="O292" t="s">
+        <v>348</v>
+      </c>
+      <c r="P292" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>352</v>
+      </c>
+      <c r="R292" t="s">
+        <v>353</v>
+      </c>
+      <c r="S292" t="s">
+        <v>354</v>
+      </c>
+      <c r="T292" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A293" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.124999999993</v>
+      </c>
+      <c r="B293" t="s">
+        <v>339</v>
+      </c>
+      <c r="C293" t="s">
+        <v>336</v>
+      </c>
+      <c r="D293" t="s">
+        <v>339</v>
+      </c>
+      <c r="E293" t="s">
+        <v>342</v>
+      </c>
+      <c r="F293" t="s">
+        <v>342</v>
+      </c>
+      <c r="G293" t="s">
+        <v>330</v>
+      </c>
+      <c r="H293" t="s">
+        <v>330</v>
+      </c>
+      <c r="I293" t="s">
+        <v>330</v>
+      </c>
+      <c r="J293" t="s">
+        <v>334</v>
+      </c>
+      <c r="K293" t="s">
+        <v>335</v>
+      </c>
+      <c r="L293" t="s">
+        <v>335</v>
+      </c>
+      <c r="M293" t="s">
+        <v>346</v>
+      </c>
+      <c r="N293" t="s">
+        <v>347</v>
+      </c>
+      <c r="O293" t="s">
+        <v>348</v>
+      </c>
+      <c r="P293" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>352</v>
+      </c>
+      <c r="R293" t="s">
+        <v>353</v>
+      </c>
+      <c r="S293" t="s">
+        <v>354</v>
+      </c>
+      <c r="T293" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A294" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.166666666657</v>
+      </c>
+      <c r="B294" t="s">
+        <v>339</v>
+      </c>
+      <c r="C294" t="s">
+        <v>336</v>
+      </c>
+      <c r="D294" t="s">
+        <v>339</v>
+      </c>
+      <c r="E294" t="s">
+        <v>342</v>
+      </c>
+      <c r="F294" t="s">
+        <v>342</v>
+      </c>
+      <c r="G294" t="s">
+        <v>330</v>
+      </c>
+      <c r="H294" t="s">
+        <v>330</v>
+      </c>
+      <c r="I294" t="s">
+        <v>330</v>
+      </c>
+      <c r="J294" t="s">
+        <v>334</v>
+      </c>
+      <c r="K294" t="s">
+        <v>335</v>
+      </c>
+      <c r="L294" t="s">
+        <v>335</v>
+      </c>
+      <c r="M294" t="s">
+        <v>346</v>
+      </c>
+      <c r="N294" t="s">
+        <v>347</v>
+      </c>
+      <c r="O294" t="s">
+        <v>348</v>
+      </c>
+      <c r="P294" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>352</v>
+      </c>
+      <c r="R294" t="s">
+        <v>353</v>
+      </c>
+      <c r="S294" t="s">
+        <v>354</v>
+      </c>
+      <c r="T294" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A295" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.208333333321</v>
+      </c>
+      <c r="B295" t="s">
+        <v>339</v>
+      </c>
+      <c r="C295" t="s">
+        <v>336</v>
+      </c>
+      <c r="D295" t="s">
+        <v>339</v>
+      </c>
+      <c r="E295" t="s">
+        <v>342</v>
+      </c>
+      <c r="F295" t="s">
+        <v>342</v>
+      </c>
+      <c r="G295" t="s">
+        <v>330</v>
+      </c>
+      <c r="H295" t="s">
+        <v>330</v>
+      </c>
+      <c r="I295" t="s">
+        <v>330</v>
+      </c>
+      <c r="J295" t="s">
+        <v>334</v>
+      </c>
+      <c r="K295" t="s">
+        <v>335</v>
+      </c>
+      <c r="L295" t="s">
+        <v>335</v>
+      </c>
+      <c r="M295" t="s">
+        <v>346</v>
+      </c>
+      <c r="N295" t="s">
+        <v>347</v>
+      </c>
+      <c r="O295" t="s">
+        <v>348</v>
+      </c>
+      <c r="P295" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>352</v>
+      </c>
+      <c r="R295" t="s">
+        <v>353</v>
+      </c>
+      <c r="S295" t="s">
+        <v>354</v>
+      </c>
+      <c r="T295" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A296" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.249999999985</v>
+      </c>
+      <c r="B296" t="s">
+        <v>339</v>
+      </c>
+      <c r="C296" t="s">
+        <v>336</v>
+      </c>
+      <c r="D296" t="s">
+        <v>339</v>
+      </c>
+      <c r="E296" t="s">
+        <v>342</v>
+      </c>
+      <c r="F296" t="s">
+        <v>342</v>
+      </c>
+      <c r="G296" t="s">
+        <v>330</v>
+      </c>
+      <c r="H296" t="s">
+        <v>330</v>
+      </c>
+      <c r="I296" t="s">
+        <v>330</v>
+      </c>
+      <c r="J296" t="s">
+        <v>334</v>
+      </c>
+      <c r="K296" t="s">
+        <v>335</v>
+      </c>
+      <c r="L296" t="s">
+        <v>335</v>
+      </c>
+      <c r="M296" t="s">
+        <v>346</v>
+      </c>
+      <c r="N296" t="s">
+        <v>347</v>
+      </c>
+      <c r="O296" t="s">
+        <v>348</v>
+      </c>
+      <c r="P296" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>352</v>
+      </c>
+      <c r="R296" t="s">
+        <v>353</v>
+      </c>
+      <c r="S296" t="s">
+        <v>354</v>
+      </c>
+      <c r="T296" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A297" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.29166666665</v>
+      </c>
+      <c r="B297" t="s">
+        <v>339</v>
+      </c>
+      <c r="C297" t="s">
+        <v>336</v>
+      </c>
+      <c r="D297" t="s">
+        <v>339</v>
+      </c>
+      <c r="E297" t="s">
+        <v>342</v>
+      </c>
+      <c r="F297" t="s">
+        <v>342</v>
+      </c>
+      <c r="G297" t="s">
+        <v>330</v>
+      </c>
+      <c r="H297" t="s">
+        <v>330</v>
+      </c>
+      <c r="I297" t="s">
+        <v>330</v>
+      </c>
+      <c r="J297" t="s">
+        <v>334</v>
+      </c>
+      <c r="K297" t="s">
+        <v>335</v>
+      </c>
+      <c r="L297" t="s">
+        <v>335</v>
+      </c>
+      <c r="M297" t="s">
+        <v>346</v>
+      </c>
+      <c r="N297" t="s">
+        <v>347</v>
+      </c>
+      <c r="O297" t="s">
+        <v>348</v>
+      </c>
+      <c r="P297" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>352</v>
+      </c>
+      <c r="R297" t="s">
+        <v>353</v>
+      </c>
+      <c r="S297" t="s">
+        <v>354</v>
+      </c>
+      <c r="T297" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A298" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.333333333314</v>
+      </c>
+      <c r="B298" t="s">
+        <v>339</v>
+      </c>
+      <c r="C298" t="s">
+        <v>336</v>
+      </c>
+      <c r="D298" t="s">
+        <v>339</v>
+      </c>
+      <c r="E298" t="s">
+        <v>342</v>
+      </c>
+      <c r="F298" t="s">
+        <v>342</v>
+      </c>
+      <c r="G298" t="s">
+        <v>330</v>
+      </c>
+      <c r="H298" t="s">
+        <v>330</v>
+      </c>
+      <c r="I298" t="s">
+        <v>330</v>
+      </c>
+      <c r="J298" t="s">
+        <v>334</v>
+      </c>
+      <c r="K298" t="s">
+        <v>335</v>
+      </c>
+      <c r="L298" t="s">
+        <v>335</v>
+      </c>
+      <c r="M298" t="s">
+        <v>346</v>
+      </c>
+      <c r="N298" t="s">
+        <v>347</v>
+      </c>
+      <c r="O298" t="s">
+        <v>348</v>
+      </c>
+      <c r="P298" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>352</v>
+      </c>
+      <c r="R298" t="s">
+        <v>353</v>
+      </c>
+      <c r="S298" t="s">
+        <v>354</v>
+      </c>
+      <c r="T298" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A299" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.374999999978</v>
+      </c>
+      <c r="B299" t="s">
+        <v>339</v>
+      </c>
+      <c r="C299" t="s">
+        <v>336</v>
+      </c>
+      <c r="D299" t="s">
+        <v>339</v>
+      </c>
+      <c r="E299" t="s">
+        <v>342</v>
+      </c>
+      <c r="F299" t="s">
+        <v>342</v>
+      </c>
+      <c r="G299" t="s">
+        <v>330</v>
+      </c>
+      <c r="H299" t="s">
+        <v>330</v>
+      </c>
+      <c r="I299" t="s">
+        <v>330</v>
+      </c>
+      <c r="J299" t="s">
+        <v>334</v>
+      </c>
+      <c r="K299" t="s">
+        <v>335</v>
+      </c>
+      <c r="L299" t="s">
+        <v>335</v>
+      </c>
+      <c r="M299" t="s">
+        <v>346</v>
+      </c>
+      <c r="N299" t="s">
+        <v>347</v>
+      </c>
+      <c r="O299" t="s">
+        <v>348</v>
+      </c>
+      <c r="P299" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>352</v>
+      </c>
+      <c r="R299" t="s">
+        <v>353</v>
+      </c>
+      <c r="S299" t="s">
+        <v>354</v>
+      </c>
+      <c r="T299" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A300" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.416666666642</v>
+      </c>
+      <c r="B300" t="s">
+        <v>339</v>
+      </c>
+      <c r="C300" t="s">
+        <v>336</v>
+      </c>
+      <c r="D300" t="s">
+        <v>339</v>
+      </c>
+      <c r="E300" t="s">
+        <v>342</v>
+      </c>
+      <c r="F300" t="s">
+        <v>342</v>
+      </c>
+      <c r="G300" t="s">
+        <v>330</v>
+      </c>
+      <c r="H300" t="s">
+        <v>330</v>
+      </c>
+      <c r="I300" t="s">
+        <v>330</v>
+      </c>
+      <c r="J300" t="s">
+        <v>334</v>
+      </c>
+      <c r="K300" t="s">
+        <v>335</v>
+      </c>
+      <c r="L300" t="s">
+        <v>335</v>
+      </c>
+      <c r="M300" t="s">
+        <v>346</v>
+      </c>
+      <c r="N300" t="s">
+        <v>347</v>
+      </c>
+      <c r="O300" t="s">
+        <v>348</v>
+      </c>
+      <c r="P300" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>352</v>
+      </c>
+      <c r="R300" t="s">
+        <v>353</v>
+      </c>
+      <c r="S300" t="s">
+        <v>354</v>
+      </c>
+      <c r="T300" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A301" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.458333333307</v>
+      </c>
+      <c r="B301" t="s">
+        <v>339</v>
+      </c>
+      <c r="C301" t="s">
+        <v>336</v>
+      </c>
+      <c r="D301" t="s">
+        <v>339</v>
+      </c>
+      <c r="E301" t="s">
+        <v>342</v>
+      </c>
+      <c r="F301" t="s">
+        <v>342</v>
+      </c>
+      <c r="G301" t="s">
+        <v>330</v>
+      </c>
+      <c r="H301" t="s">
+        <v>330</v>
+      </c>
+      <c r="I301" t="s">
+        <v>330</v>
+      </c>
+      <c r="J301" t="s">
+        <v>334</v>
+      </c>
+      <c r="K301" t="s">
+        <v>335</v>
+      </c>
+      <c r="L301" t="s">
+        <v>335</v>
+      </c>
+      <c r="M301" t="s">
+        <v>346</v>
+      </c>
+      <c r="N301" t="s">
+        <v>347</v>
+      </c>
+      <c r="O301" t="s">
+        <v>348</v>
+      </c>
+      <c r="P301" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>352</v>
+      </c>
+      <c r="R301" t="s">
+        <v>353</v>
+      </c>
+      <c r="S301" t="s">
+        <v>354</v>
+      </c>
+      <c r="T301" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A302" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.499999999971</v>
+      </c>
+      <c r="B302" t="s">
+        <v>339</v>
+      </c>
+      <c r="C302" t="s">
+        <v>336</v>
+      </c>
+      <c r="D302" t="s">
+        <v>339</v>
+      </c>
+      <c r="E302" t="s">
+        <v>342</v>
+      </c>
+      <c r="F302" t="s">
+        <v>342</v>
+      </c>
+      <c r="G302" t="s">
+        <v>330</v>
+      </c>
+      <c r="H302" t="s">
+        <v>330</v>
+      </c>
+      <c r="I302" t="s">
+        <v>330</v>
+      </c>
+      <c r="J302" t="s">
+        <v>334</v>
+      </c>
+      <c r="K302" t="s">
+        <v>335</v>
+      </c>
+      <c r="L302" t="s">
+        <v>335</v>
+      </c>
+      <c r="M302" t="s">
+        <v>346</v>
+      </c>
+      <c r="N302" t="s">
+        <v>347</v>
+      </c>
+      <c r="O302" t="s">
+        <v>348</v>
+      </c>
+      <c r="P302" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>352</v>
+      </c>
+      <c r="R302" t="s">
+        <v>353</v>
+      </c>
+      <c r="S302" t="s">
+        <v>354</v>
+      </c>
+      <c r="T302" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A303" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.541666666635</v>
+      </c>
+      <c r="B303" t="s">
+        <v>339</v>
+      </c>
+      <c r="C303" t="s">
+        <v>336</v>
+      </c>
+      <c r="D303" t="s">
+        <v>339</v>
+      </c>
+      <c r="E303" t="s">
+        <v>342</v>
+      </c>
+      <c r="F303" t="s">
+        <v>342</v>
+      </c>
+      <c r="G303" t="s">
+        <v>330</v>
+      </c>
+      <c r="H303" t="s">
+        <v>330</v>
+      </c>
+      <c r="I303" t="s">
+        <v>330</v>
+      </c>
+      <c r="J303" t="s">
+        <v>334</v>
+      </c>
+      <c r="K303" t="s">
+        <v>335</v>
+      </c>
+      <c r="L303" t="s">
+        <v>335</v>
+      </c>
+      <c r="M303" t="s">
+        <v>346</v>
+      </c>
+      <c r="N303" t="s">
+        <v>347</v>
+      </c>
+      <c r="O303" t="s">
+        <v>348</v>
+      </c>
+      <c r="P303" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>352</v>
+      </c>
+      <c r="R303" t="s">
+        <v>353</v>
+      </c>
+      <c r="S303" t="s">
+        <v>354</v>
+      </c>
+      <c r="T303" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A304" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.583333333299</v>
+      </c>
+      <c r="B304" t="s">
+        <v>339</v>
+      </c>
+      <c r="C304" t="s">
+        <v>336</v>
+      </c>
+      <c r="D304" t="s">
+        <v>339</v>
+      </c>
+      <c r="E304" t="s">
+        <v>342</v>
+      </c>
+      <c r="F304" t="s">
+        <v>342</v>
+      </c>
+      <c r="G304" t="s">
+        <v>330</v>
+      </c>
+      <c r="H304" t="s">
+        <v>330</v>
+      </c>
+      <c r="I304" t="s">
+        <v>330</v>
+      </c>
+      <c r="J304" t="s">
+        <v>334</v>
+      </c>
+      <c r="K304" t="s">
+        <v>335</v>
+      </c>
+      <c r="L304" t="s">
+        <v>335</v>
+      </c>
+      <c r="M304" t="s">
+        <v>346</v>
+      </c>
+      <c r="N304" t="s">
+        <v>347</v>
+      </c>
+      <c r="O304" t="s">
+        <v>348</v>
+      </c>
+      <c r="P304" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>352</v>
+      </c>
+      <c r="R304" t="s">
+        <v>353</v>
+      </c>
+      <c r="S304" t="s">
+        <v>354</v>
+      </c>
+      <c r="T304" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A305" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.624999999964</v>
+      </c>
+      <c r="B305" t="s">
+        <v>339</v>
+      </c>
+      <c r="C305" t="s">
+        <v>336</v>
+      </c>
+      <c r="D305" t="s">
+        <v>339</v>
+      </c>
+      <c r="E305" t="s">
+        <v>342</v>
+      </c>
+      <c r="F305" t="s">
+        <v>342</v>
+      </c>
+      <c r="G305" t="s">
+        <v>330</v>
+      </c>
+      <c r="H305" t="s">
+        <v>330</v>
+      </c>
+      <c r="I305" t="s">
+        <v>330</v>
+      </c>
+      <c r="J305" t="s">
+        <v>334</v>
+      </c>
+      <c r="K305" t="s">
+        <v>335</v>
+      </c>
+      <c r="L305" t="s">
+        <v>335</v>
+      </c>
+      <c r="M305" t="s">
+        <v>346</v>
+      </c>
+      <c r="N305" t="s">
+        <v>347</v>
+      </c>
+      <c r="O305" t="s">
+        <v>348</v>
+      </c>
+      <c r="P305" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>352</v>
+      </c>
+      <c r="R305" t="s">
+        <v>353</v>
+      </c>
+      <c r="S305" t="s">
+        <v>354</v>
+      </c>
+      <c r="T305" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A306" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.666666666628</v>
+      </c>
+      <c r="B306" t="s">
+        <v>339</v>
+      </c>
+      <c r="C306" t="s">
+        <v>336</v>
+      </c>
+      <c r="D306" t="s">
+        <v>339</v>
+      </c>
+      <c r="E306" t="s">
+        <v>342</v>
+      </c>
+      <c r="F306" t="s">
+        <v>342</v>
+      </c>
+      <c r="G306" t="s">
+        <v>330</v>
+      </c>
+      <c r="H306" t="s">
+        <v>330</v>
+      </c>
+      <c r="I306" t="s">
+        <v>330</v>
+      </c>
+      <c r="J306" t="s">
+        <v>334</v>
+      </c>
+      <c r="K306" t="s">
+        <v>335</v>
+      </c>
+      <c r="L306" t="s">
+        <v>335</v>
+      </c>
+      <c r="M306" t="s">
+        <v>346</v>
+      </c>
+      <c r="N306" t="s">
+        <v>347</v>
+      </c>
+      <c r="O306" t="s">
+        <v>348</v>
+      </c>
+      <c r="P306" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>352</v>
+      </c>
+      <c r="R306" t="s">
+        <v>353</v>
+      </c>
+      <c r="S306" t="s">
+        <v>354</v>
+      </c>
+      <c r="T306" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A307" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.708333333292</v>
+      </c>
+      <c r="B307" t="s">
+        <v>339</v>
+      </c>
+      <c r="C307" t="s">
+        <v>336</v>
+      </c>
+      <c r="D307" t="s">
+        <v>339</v>
+      </c>
+      <c r="E307" t="s">
+        <v>342</v>
+      </c>
+      <c r="F307" t="s">
+        <v>342</v>
+      </c>
+      <c r="G307" t="s">
+        <v>330</v>
+      </c>
+      <c r="H307" t="s">
+        <v>330</v>
+      </c>
+      <c r="I307" t="s">
+        <v>330</v>
+      </c>
+      <c r="J307" t="s">
+        <v>334</v>
+      </c>
+      <c r="K307" t="s">
+        <v>335</v>
+      </c>
+      <c r="L307" t="s">
+        <v>335</v>
+      </c>
+      <c r="M307" t="s">
+        <v>346</v>
+      </c>
+      <c r="N307" t="s">
+        <v>347</v>
+      </c>
+      <c r="O307" t="s">
+        <v>348</v>
+      </c>
+      <c r="P307" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>352</v>
+      </c>
+      <c r="R307" t="s">
+        <v>353</v>
+      </c>
+      <c r="S307" t="s">
+        <v>354</v>
+      </c>
+      <c r="T307" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A308" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.749999999956</v>
+      </c>
+      <c r="B308" t="s">
+        <v>339</v>
+      </c>
+      <c r="C308" t="s">
+        <v>336</v>
+      </c>
+      <c r="D308" t="s">
+        <v>339</v>
+      </c>
+      <c r="E308" t="s">
+        <v>342</v>
+      </c>
+      <c r="F308" t="s">
+        <v>342</v>
+      </c>
+      <c r="G308" t="s">
+        <v>330</v>
+      </c>
+      <c r="H308" t="s">
+        <v>330</v>
+      </c>
+      <c r="I308" t="s">
+        <v>330</v>
+      </c>
+      <c r="J308" t="s">
+        <v>334</v>
+      </c>
+      <c r="K308" t="s">
+        <v>335</v>
+      </c>
+      <c r="L308" t="s">
+        <v>335</v>
+      </c>
+      <c r="M308" t="s">
+        <v>346</v>
+      </c>
+      <c r="N308" t="s">
+        <v>347</v>
+      </c>
+      <c r="O308" t="s">
+        <v>348</v>
+      </c>
+      <c r="P308" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>352</v>
+      </c>
+      <c r="R308" t="s">
+        <v>353</v>
+      </c>
+      <c r="S308" t="s">
+        <v>354</v>
+      </c>
+      <c r="T308" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A309" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.791666666621</v>
+      </c>
+      <c r="B309" t="s">
+        <v>339</v>
+      </c>
+      <c r="C309" t="s">
+        <v>336</v>
+      </c>
+      <c r="D309" t="s">
+        <v>339</v>
+      </c>
+      <c r="E309" t="s">
+        <v>342</v>
+      </c>
+      <c r="F309" t="s">
+        <v>342</v>
+      </c>
+      <c r="G309" t="s">
+        <v>330</v>
+      </c>
+      <c r="H309" t="s">
+        <v>330</v>
+      </c>
+      <c r="I309" t="s">
+        <v>330</v>
+      </c>
+      <c r="J309" t="s">
+        <v>334</v>
+      </c>
+      <c r="K309" t="s">
+        <v>335</v>
+      </c>
+      <c r="L309" t="s">
+        <v>335</v>
+      </c>
+      <c r="M309" t="s">
+        <v>346</v>
+      </c>
+      <c r="N309" t="s">
+        <v>347</v>
+      </c>
+      <c r="O309" t="s">
+        <v>348</v>
+      </c>
+      <c r="P309" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>352</v>
+      </c>
+      <c r="R309" t="s">
+        <v>353</v>
+      </c>
+      <c r="S309" t="s">
+        <v>354</v>
+      </c>
+      <c r="T309" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A310" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.833333333285</v>
+      </c>
+      <c r="B310" t="s">
+        <v>339</v>
+      </c>
+      <c r="C310" t="s">
+        <v>336</v>
+      </c>
+      <c r="D310" t="s">
+        <v>339</v>
+      </c>
+      <c r="E310" t="s">
+        <v>342</v>
+      </c>
+      <c r="F310" t="s">
+        <v>342</v>
+      </c>
+      <c r="G310" t="s">
+        <v>330</v>
+      </c>
+      <c r="H310" t="s">
+        <v>330</v>
+      </c>
+      <c r="I310" t="s">
+        <v>330</v>
+      </c>
+      <c r="J310" t="s">
+        <v>334</v>
+      </c>
+      <c r="K310" t="s">
+        <v>335</v>
+      </c>
+      <c r="L310" t="s">
+        <v>335</v>
+      </c>
+      <c r="M310" t="s">
+        <v>346</v>
+      </c>
+      <c r="N310" t="s">
+        <v>347</v>
+      </c>
+      <c r="O310" t="s">
+        <v>348</v>
+      </c>
+      <c r="P310" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>352</v>
+      </c>
+      <c r="R310" t="s">
+        <v>353</v>
+      </c>
+      <c r="S310" t="s">
+        <v>354</v>
+      </c>
+      <c r="T310" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A311" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.874999999949</v>
+      </c>
+      <c r="B311" t="s">
+        <v>339</v>
+      </c>
+      <c r="C311" t="s">
+        <v>336</v>
+      </c>
+      <c r="D311" t="s">
+        <v>339</v>
+      </c>
+      <c r="E311" t="s">
+        <v>342</v>
+      </c>
+      <c r="F311" t="s">
+        <v>342</v>
+      </c>
+      <c r="G311" t="s">
+        <v>330</v>
+      </c>
+      <c r="H311" t="s">
+        <v>330</v>
+      </c>
+      <c r="I311" t="s">
+        <v>330</v>
+      </c>
+      <c r="J311" t="s">
+        <v>334</v>
+      </c>
+      <c r="K311" t="s">
+        <v>335</v>
+      </c>
+      <c r="L311" t="s">
+        <v>335</v>
+      </c>
+      <c r="M311" t="s">
+        <v>346</v>
+      </c>
+      <c r="N311" t="s">
+        <v>347</v>
+      </c>
+      <c r="O311" t="s">
+        <v>348</v>
+      </c>
+      <c r="P311" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>352</v>
+      </c>
+      <c r="R311" t="s">
+        <v>353</v>
+      </c>
+      <c r="S311" t="s">
+        <v>354</v>
+      </c>
+      <c r="T311" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A312" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.916666666613</v>
+      </c>
+      <c r="B312" t="s">
+        <v>339</v>
+      </c>
+      <c r="C312" t="s">
+        <v>336</v>
+      </c>
+      <c r="D312" t="s">
+        <v>339</v>
+      </c>
+      <c r="E312" t="s">
+        <v>342</v>
+      </c>
+      <c r="F312" t="s">
+        <v>342</v>
+      </c>
+      <c r="G312" t="s">
+        <v>330</v>
+      </c>
+      <c r="H312" t="s">
+        <v>330</v>
+      </c>
+      <c r="I312" t="s">
+        <v>330</v>
+      </c>
+      <c r="J312" t="s">
+        <v>334</v>
+      </c>
+      <c r="K312" t="s">
+        <v>335</v>
+      </c>
+      <c r="L312" t="s">
+        <v>335</v>
+      </c>
+      <c r="M312" t="s">
+        <v>346</v>
+      </c>
+      <c r="N312" t="s">
+        <v>347</v>
+      </c>
+      <c r="O312" t="s">
+        <v>348</v>
+      </c>
+      <c r="P312" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>352</v>
+      </c>
+      <c r="R312" t="s">
+        <v>353</v>
+      </c>
+      <c r="S312" t="s">
+        <v>354</v>
+      </c>
+      <c r="T312" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A313" s="18">
+        <f t="shared" si="8"/>
+        <v>43498.958333333278</v>
+      </c>
+      <c r="B313" t="s">
+        <v>339</v>
+      </c>
+      <c r="C313" t="s">
+        <v>336</v>
+      </c>
+      <c r="D313" t="s">
+        <v>339</v>
+      </c>
+      <c r="E313" t="s">
+        <v>342</v>
+      </c>
+      <c r="F313" t="s">
+        <v>342</v>
+      </c>
+      <c r="G313" t="s">
+        <v>330</v>
+      </c>
+      <c r="H313" t="s">
+        <v>330</v>
+      </c>
+      <c r="I313" t="s">
+        <v>330</v>
+      </c>
+      <c r="J313" t="s">
+        <v>334</v>
+      </c>
+      <c r="K313" t="s">
+        <v>335</v>
+      </c>
+      <c r="L313" t="s">
+        <v>335</v>
+      </c>
+      <c r="M313" t="s">
+        <v>346</v>
+      </c>
+      <c r="N313" t="s">
+        <v>347</v>
+      </c>
+      <c r="O313" t="s">
+        <v>348</v>
+      </c>
+      <c r="P313" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>352</v>
+      </c>
+      <c r="R313" t="s">
+        <v>353</v>
+      </c>
+      <c r="S313" t="s">
+        <v>354</v>
+      </c>
+      <c r="T313" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A314" s="18">
+        <v>43561</v>
+      </c>
+      <c r="B314" t="s">
+        <v>339</v>
+      </c>
+      <c r="C314" t="s">
+        <v>336</v>
+      </c>
+      <c r="D314" t="s">
+        <v>339</v>
+      </c>
+      <c r="E314" t="s">
+        <v>342</v>
+      </c>
+      <c r="F314" t="s">
+        <v>342</v>
+      </c>
+      <c r="G314" t="s">
+        <v>330</v>
+      </c>
+      <c r="H314" t="s">
+        <v>330</v>
+      </c>
+      <c r="I314" t="s">
+        <v>330</v>
+      </c>
+      <c r="J314" t="s">
+        <v>334</v>
+      </c>
+      <c r="K314" t="s">
+        <v>335</v>
+      </c>
+      <c r="L314" t="s">
+        <v>335</v>
+      </c>
+      <c r="M314" t="s">
+        <v>346</v>
+      </c>
+      <c r="N314" t="s">
+        <v>347</v>
+      </c>
+      <c r="O314" t="s">
+        <v>348</v>
+      </c>
+      <c r="P314" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>352</v>
+      </c>
+      <c r="R314" t="s">
+        <v>353</v>
+      </c>
+      <c r="S314" t="s">
+        <v>354</v>
+      </c>
+      <c r="T314" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A315" s="17">
+        <f>A314+1/24</f>
+        <v>43561.041666666664</v>
+      </c>
+      <c r="B315" t="s">
+        <v>339</v>
+      </c>
+      <c r="C315" t="s">
+        <v>336</v>
+      </c>
+      <c r="D315" t="s">
+        <v>339</v>
+      </c>
+      <c r="E315" t="s">
+        <v>342</v>
+      </c>
+      <c r="F315" t="s">
+        <v>342</v>
+      </c>
+      <c r="G315" t="s">
+        <v>330</v>
+      </c>
+      <c r="H315" t="s">
+        <v>330</v>
+      </c>
+      <c r="I315" t="s">
+        <v>330</v>
+      </c>
+      <c r="J315" t="s">
+        <v>334</v>
+      </c>
+      <c r="K315" t="s">
+        <v>335</v>
+      </c>
+      <c r="L315" t="s">
+        <v>335</v>
+      </c>
+      <c r="M315" t="s">
+        <v>346</v>
+      </c>
+      <c r="N315" t="s">
+        <v>347</v>
+      </c>
+      <c r="O315" t="s">
+        <v>348</v>
+      </c>
+      <c r="P315" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>352</v>
+      </c>
+      <c r="R315" t="s">
+        <v>353</v>
+      </c>
+      <c r="S315" t="s">
+        <v>354</v>
+      </c>
+      <c r="T315" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A316" s="17">
+        <f t="shared" ref="A316:A338" si="9">A315+1/24</f>
+        <v>43561.083333333328</v>
+      </c>
+      <c r="B316" t="s">
+        <v>339</v>
+      </c>
+      <c r="C316" t="s">
+        <v>336</v>
+      </c>
+      <c r="D316" t="s">
+        <v>339</v>
+      </c>
+      <c r="E316" t="s">
+        <v>342</v>
+      </c>
+      <c r="F316" t="s">
+        <v>342</v>
+      </c>
+      <c r="G316" t="s">
+        <v>330</v>
+      </c>
+      <c r="H316" t="s">
+        <v>330</v>
+      </c>
+      <c r="I316" t="s">
+        <v>330</v>
+      </c>
+      <c r="J316" t="s">
+        <v>334</v>
+      </c>
+      <c r="K316" t="s">
+        <v>335</v>
+      </c>
+      <c r="L316" t="s">
+        <v>335</v>
+      </c>
+      <c r="M316" t="s">
+        <v>346</v>
+      </c>
+      <c r="N316" t="s">
+        <v>347</v>
+      </c>
+      <c r="O316" t="s">
+        <v>348</v>
+      </c>
+      <c r="P316" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>352</v>
+      </c>
+      <c r="R316" t="s">
+        <v>353</v>
+      </c>
+      <c r="S316" t="s">
+        <v>354</v>
+      </c>
+      <c r="T316" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A317" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.124999999993</v>
+      </c>
+      <c r="B317" t="s">
+        <v>339</v>
+      </c>
+      <c r="C317" t="s">
+        <v>336</v>
+      </c>
+      <c r="D317" t="s">
+        <v>339</v>
+      </c>
+      <c r="E317" t="s">
+        <v>342</v>
+      </c>
+      <c r="F317" t="s">
+        <v>342</v>
+      </c>
+      <c r="G317" t="s">
+        <v>330</v>
+      </c>
+      <c r="H317" t="s">
+        <v>330</v>
+      </c>
+      <c r="I317" t="s">
+        <v>330</v>
+      </c>
+      <c r="J317" t="s">
+        <v>334</v>
+      </c>
+      <c r="K317" t="s">
+        <v>335</v>
+      </c>
+      <c r="L317" t="s">
+        <v>335</v>
+      </c>
+      <c r="M317" t="s">
+        <v>346</v>
+      </c>
+      <c r="N317" t="s">
+        <v>347</v>
+      </c>
+      <c r="O317" t="s">
+        <v>348</v>
+      </c>
+      <c r="P317" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>352</v>
+      </c>
+      <c r="R317" t="s">
+        <v>353</v>
+      </c>
+      <c r="S317" t="s">
+        <v>354</v>
+      </c>
+      <c r="T317" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A318" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.166666666657</v>
+      </c>
+      <c r="B318" t="s">
+        <v>339</v>
+      </c>
+      <c r="C318" t="s">
+        <v>336</v>
+      </c>
+      <c r="D318" t="s">
+        <v>339</v>
+      </c>
+      <c r="E318" t="s">
+        <v>342</v>
+      </c>
+      <c r="F318" t="s">
+        <v>342</v>
+      </c>
+      <c r="G318" t="s">
+        <v>330</v>
+      </c>
+      <c r="H318" t="s">
+        <v>330</v>
+      </c>
+      <c r="I318" t="s">
+        <v>330</v>
+      </c>
+      <c r="J318" t="s">
+        <v>334</v>
+      </c>
+      <c r="K318" t="s">
+        <v>335</v>
+      </c>
+      <c r="L318" t="s">
+        <v>335</v>
+      </c>
+      <c r="M318" t="s">
+        <v>346</v>
+      </c>
+      <c r="N318" t="s">
+        <v>347</v>
+      </c>
+      <c r="O318" t="s">
+        <v>348</v>
+      </c>
+      <c r="P318" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>352</v>
+      </c>
+      <c r="R318" t="s">
+        <v>353</v>
+      </c>
+      <c r="S318" t="s">
+        <v>354</v>
+      </c>
+      <c r="T318" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A319" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.208333333321</v>
+      </c>
+      <c r="B319" t="s">
+        <v>339</v>
+      </c>
+      <c r="C319" t="s">
+        <v>336</v>
+      </c>
+      <c r="D319" t="s">
+        <v>339</v>
+      </c>
+      <c r="E319" t="s">
+        <v>342</v>
+      </c>
+      <c r="F319" t="s">
+        <v>342</v>
+      </c>
+      <c r="G319" t="s">
+        <v>330</v>
+      </c>
+      <c r="H319" t="s">
+        <v>330</v>
+      </c>
+      <c r="I319" t="s">
+        <v>330</v>
+      </c>
+      <c r="J319" t="s">
+        <v>334</v>
+      </c>
+      <c r="K319" t="s">
+        <v>335</v>
+      </c>
+      <c r="L319" t="s">
+        <v>335</v>
+      </c>
+      <c r="M319" t="s">
+        <v>346</v>
+      </c>
+      <c r="N319" t="s">
+        <v>347</v>
+      </c>
+      <c r="O319" t="s">
+        <v>348</v>
+      </c>
+      <c r="P319" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>352</v>
+      </c>
+      <c r="R319" t="s">
+        <v>353</v>
+      </c>
+      <c r="S319" t="s">
+        <v>354</v>
+      </c>
+      <c r="T319" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A320" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.249999999985</v>
+      </c>
+      <c r="B320" t="s">
+        <v>339</v>
+      </c>
+      <c r="C320" t="s">
+        <v>336</v>
+      </c>
+      <c r="D320" t="s">
+        <v>339</v>
+      </c>
+      <c r="E320" t="s">
+        <v>342</v>
+      </c>
+      <c r="F320" t="s">
+        <v>342</v>
+      </c>
+      <c r="G320" t="s">
+        <v>330</v>
+      </c>
+      <c r="H320" t="s">
+        <v>330</v>
+      </c>
+      <c r="I320" t="s">
+        <v>330</v>
+      </c>
+      <c r="J320" t="s">
+        <v>334</v>
+      </c>
+      <c r="K320" t="s">
+        <v>335</v>
+      </c>
+      <c r="L320" t="s">
+        <v>335</v>
+      </c>
+      <c r="M320" t="s">
+        <v>346</v>
+      </c>
+      <c r="N320" t="s">
+        <v>347</v>
+      </c>
+      <c r="O320" t="s">
+        <v>348</v>
+      </c>
+      <c r="P320" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>352</v>
+      </c>
+      <c r="R320" t="s">
+        <v>353</v>
+      </c>
+      <c r="S320" t="s">
+        <v>354</v>
+      </c>
+      <c r="T320" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A321" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.29166666665</v>
+      </c>
+      <c r="B321" t="s">
+        <v>339</v>
+      </c>
+      <c r="C321" t="s">
+        <v>336</v>
+      </c>
+      <c r="D321" t="s">
+        <v>339</v>
+      </c>
+      <c r="E321" t="s">
+        <v>342</v>
+      </c>
+      <c r="F321" t="s">
+        <v>342</v>
+      </c>
+      <c r="G321" t="s">
+        <v>330</v>
+      </c>
+      <c r="H321" t="s">
+        <v>330</v>
+      </c>
+      <c r="I321" t="s">
+        <v>330</v>
+      </c>
+      <c r="J321" t="s">
+        <v>334</v>
+      </c>
+      <c r="K321" t="s">
+        <v>335</v>
+      </c>
+      <c r="L321" t="s">
+        <v>335</v>
+      </c>
+      <c r="M321" t="s">
+        <v>346</v>
+      </c>
+      <c r="N321" t="s">
+        <v>347</v>
+      </c>
+      <c r="O321" t="s">
+        <v>348</v>
+      </c>
+      <c r="P321" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>352</v>
+      </c>
+      <c r="R321" t="s">
+        <v>353</v>
+      </c>
+      <c r="S321" t="s">
+        <v>354</v>
+      </c>
+      <c r="T321" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A322" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.333333333314</v>
+      </c>
+      <c r="B322" t="s">
+        <v>339</v>
+      </c>
+      <c r="C322" t="s">
+        <v>336</v>
+      </c>
+      <c r="D322" t="s">
+        <v>339</v>
+      </c>
+      <c r="E322" t="s">
+        <v>342</v>
+      </c>
+      <c r="F322" t="s">
+        <v>342</v>
+      </c>
+      <c r="G322" t="s">
+        <v>330</v>
+      </c>
+      <c r="H322" t="s">
+        <v>330</v>
+      </c>
+      <c r="I322" t="s">
+        <v>330</v>
+      </c>
+      <c r="J322" t="s">
+        <v>334</v>
+      </c>
+      <c r="K322" t="s">
+        <v>335</v>
+      </c>
+      <c r="L322" t="s">
+        <v>335</v>
+      </c>
+      <c r="M322" t="s">
+        <v>346</v>
+      </c>
+      <c r="N322" t="s">
+        <v>347</v>
+      </c>
+      <c r="O322" t="s">
+        <v>348</v>
+      </c>
+      <c r="P322" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>352</v>
+      </c>
+      <c r="R322" t="s">
+        <v>353</v>
+      </c>
+      <c r="S322" t="s">
+        <v>354</v>
+      </c>
+      <c r="T322" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A323" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.374999999978</v>
+      </c>
+      <c r="B323" t="s">
+        <v>339</v>
+      </c>
+      <c r="C323" t="s">
+        <v>336</v>
+      </c>
+      <c r="D323" t="s">
+        <v>339</v>
+      </c>
+      <c r="E323" t="s">
+        <v>342</v>
+      </c>
+      <c r="F323" t="s">
+        <v>342</v>
+      </c>
+      <c r="G323" t="s">
+        <v>330</v>
+      </c>
+      <c r="H323" t="s">
+        <v>330</v>
+      </c>
+      <c r="I323" t="s">
+        <v>330</v>
+      </c>
+      <c r="J323" t="s">
+        <v>334</v>
+      </c>
+      <c r="K323" t="s">
+        <v>335</v>
+      </c>
+      <c r="L323" t="s">
+        <v>335</v>
+      </c>
+      <c r="M323" t="s">
+        <v>346</v>
+      </c>
+      <c r="N323" t="s">
+        <v>347</v>
+      </c>
+      <c r="O323" t="s">
+        <v>348</v>
+      </c>
+      <c r="P323" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>352</v>
+      </c>
+      <c r="R323" t="s">
+        <v>353</v>
+      </c>
+      <c r="S323" t="s">
+        <v>354</v>
+      </c>
+      <c r="T323" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A324" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.416666666642</v>
+      </c>
+      <c r="B324" t="s">
+        <v>339</v>
+      </c>
+      <c r="C324" t="s">
+        <v>336</v>
+      </c>
+      <c r="D324" t="s">
+        <v>339</v>
+      </c>
+      <c r="E324" t="s">
+        <v>342</v>
+      </c>
+      <c r="F324" t="s">
+        <v>342</v>
+      </c>
+      <c r="G324" t="s">
+        <v>330</v>
+      </c>
+      <c r="H324" t="s">
+        <v>330</v>
+      </c>
+      <c r="I324" t="s">
+        <v>330</v>
+      </c>
+      <c r="J324" t="s">
+        <v>334</v>
+      </c>
+      <c r="K324" t="s">
+        <v>335</v>
+      </c>
+      <c r="L324" t="s">
+        <v>335</v>
+      </c>
+      <c r="M324" t="s">
+        <v>346</v>
+      </c>
+      <c r="N324" t="s">
+        <v>347</v>
+      </c>
+      <c r="O324" t="s">
+        <v>348</v>
+      </c>
+      <c r="P324" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>352</v>
+      </c>
+      <c r="R324" t="s">
+        <v>353</v>
+      </c>
+      <c r="S324" t="s">
+        <v>354</v>
+      </c>
+      <c r="T324" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A325" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.458333333307</v>
+      </c>
+      <c r="B325" t="s">
+        <v>339</v>
+      </c>
+      <c r="C325" t="s">
+        <v>336</v>
+      </c>
+      <c r="D325" t="s">
+        <v>339</v>
+      </c>
+      <c r="E325" t="s">
+        <v>342</v>
+      </c>
+      <c r="F325" t="s">
+        <v>342</v>
+      </c>
+      <c r="G325" t="s">
+        <v>330</v>
+      </c>
+      <c r="H325" t="s">
+        <v>330</v>
+      </c>
+      <c r="I325" t="s">
+        <v>330</v>
+      </c>
+      <c r="J325" t="s">
+        <v>334</v>
+      </c>
+      <c r="K325" t="s">
+        <v>335</v>
+      </c>
+      <c r="L325" t="s">
+        <v>335</v>
+      </c>
+      <c r="M325" t="s">
+        <v>346</v>
+      </c>
+      <c r="N325" t="s">
+        <v>347</v>
+      </c>
+      <c r="O325" t="s">
+        <v>348</v>
+      </c>
+      <c r="P325" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>352</v>
+      </c>
+      <c r="R325" t="s">
+        <v>353</v>
+      </c>
+      <c r="S325" t="s">
+        <v>354</v>
+      </c>
+      <c r="T325" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A326" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.499999999971</v>
+      </c>
+      <c r="B326" t="s">
+        <v>339</v>
+      </c>
+      <c r="C326" t="s">
+        <v>336</v>
+      </c>
+      <c r="D326" t="s">
+        <v>339</v>
+      </c>
+      <c r="E326" t="s">
+        <v>342</v>
+      </c>
+      <c r="F326" t="s">
+        <v>342</v>
+      </c>
+      <c r="G326" t="s">
+        <v>330</v>
+      </c>
+      <c r="H326" t="s">
+        <v>330</v>
+      </c>
+      <c r="I326" t="s">
+        <v>330</v>
+      </c>
+      <c r="J326" t="s">
+        <v>334</v>
+      </c>
+      <c r="K326" t="s">
+        <v>335</v>
+      </c>
+      <c r="L326" t="s">
+        <v>335</v>
+      </c>
+      <c r="M326" t="s">
+        <v>346</v>
+      </c>
+      <c r="N326" t="s">
+        <v>347</v>
+      </c>
+      <c r="O326" t="s">
+        <v>348</v>
+      </c>
+      <c r="P326" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>352</v>
+      </c>
+      <c r="R326" t="s">
+        <v>353</v>
+      </c>
+      <c r="S326" t="s">
+        <v>354</v>
+      </c>
+      <c r="T326" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A327" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.541666666635</v>
+      </c>
+      <c r="B327" t="s">
+        <v>339</v>
+      </c>
+      <c r="C327" t="s">
+        <v>336</v>
+      </c>
+      <c r="D327" t="s">
+        <v>339</v>
+      </c>
+      <c r="E327" t="s">
+        <v>342</v>
+      </c>
+      <c r="F327" t="s">
+        <v>342</v>
+      </c>
+      <c r="G327" t="s">
+        <v>330</v>
+      </c>
+      <c r="H327" t="s">
+        <v>330</v>
+      </c>
+      <c r="I327" t="s">
+        <v>330</v>
+      </c>
+      <c r="J327" t="s">
+        <v>334</v>
+      </c>
+      <c r="K327" t="s">
+        <v>335</v>
+      </c>
+      <c r="L327" t="s">
+        <v>335</v>
+      </c>
+      <c r="M327" t="s">
+        <v>346</v>
+      </c>
+      <c r="N327" t="s">
+        <v>347</v>
+      </c>
+      <c r="O327" t="s">
+        <v>348</v>
+      </c>
+      <c r="P327" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>352</v>
+      </c>
+      <c r="R327" t="s">
+        <v>353</v>
+      </c>
+      <c r="S327" t="s">
+        <v>354</v>
+      </c>
+      <c r="T327" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A328" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.583333333299</v>
+      </c>
+      <c r="B328" t="s">
+        <v>339</v>
+      </c>
+      <c r="C328" t="s">
+        <v>336</v>
+      </c>
+      <c r="D328" t="s">
+        <v>339</v>
+      </c>
+      <c r="E328" t="s">
+        <v>342</v>
+      </c>
+      <c r="F328" t="s">
+        <v>342</v>
+      </c>
+      <c r="G328" t="s">
+        <v>330</v>
+      </c>
+      <c r="H328" t="s">
+        <v>330</v>
+      </c>
+      <c r="I328" t="s">
+        <v>330</v>
+      </c>
+      <c r="J328" t="s">
+        <v>334</v>
+      </c>
+      <c r="K328" t="s">
+        <v>335</v>
+      </c>
+      <c r="L328" t="s">
+        <v>335</v>
+      </c>
+      <c r="M328" t="s">
+        <v>346</v>
+      </c>
+      <c r="N328" t="s">
+        <v>347</v>
+      </c>
+      <c r="O328" t="s">
+        <v>348</v>
+      </c>
+      <c r="P328" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>352</v>
+      </c>
+      <c r="R328" t="s">
+        <v>353</v>
+      </c>
+      <c r="S328" t="s">
+        <v>354</v>
+      </c>
+      <c r="T328" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A329" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.624999999964</v>
+      </c>
+      <c r="B329" t="s">
+        <v>339</v>
+      </c>
+      <c r="C329" t="s">
+        <v>336</v>
+      </c>
+      <c r="D329" t="s">
+        <v>339</v>
+      </c>
+      <c r="E329" t="s">
+        <v>342</v>
+      </c>
+      <c r="F329" t="s">
+        <v>342</v>
+      </c>
+      <c r="G329" t="s">
+        <v>330</v>
+      </c>
+      <c r="H329" t="s">
+        <v>330</v>
+      </c>
+      <c r="I329" t="s">
+        <v>330</v>
+      </c>
+      <c r="J329" t="s">
+        <v>334</v>
+      </c>
+      <c r="K329" t="s">
+        <v>335</v>
+      </c>
+      <c r="L329" t="s">
+        <v>335</v>
+      </c>
+      <c r="M329" t="s">
+        <v>346</v>
+      </c>
+      <c r="N329" t="s">
+        <v>347</v>
+      </c>
+      <c r="O329" t="s">
+        <v>348</v>
+      </c>
+      <c r="P329" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>352</v>
+      </c>
+      <c r="R329" t="s">
+        <v>353</v>
+      </c>
+      <c r="S329" t="s">
+        <v>354</v>
+      </c>
+      <c r="T329" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A330" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.666666666628</v>
+      </c>
+      <c r="B330" t="s">
+        <v>339</v>
+      </c>
+      <c r="C330" t="s">
+        <v>336</v>
+      </c>
+      <c r="D330" t="s">
+        <v>339</v>
+      </c>
+      <c r="E330" t="s">
+        <v>342</v>
+      </c>
+      <c r="F330" t="s">
+        <v>342</v>
+      </c>
+      <c r="G330" t="s">
+        <v>330</v>
+      </c>
+      <c r="H330" t="s">
+        <v>330</v>
+      </c>
+      <c r="I330" t="s">
+        <v>330</v>
+      </c>
+      <c r="J330" t="s">
+        <v>334</v>
+      </c>
+      <c r="K330" t="s">
+        <v>335</v>
+      </c>
+      <c r="L330" t="s">
+        <v>335</v>
+      </c>
+      <c r="M330" t="s">
+        <v>346</v>
+      </c>
+      <c r="N330" t="s">
+        <v>347</v>
+      </c>
+      <c r="O330" t="s">
+        <v>348</v>
+      </c>
+      <c r="P330" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>352</v>
+      </c>
+      <c r="R330" t="s">
+        <v>353</v>
+      </c>
+      <c r="S330" t="s">
+        <v>354</v>
+      </c>
+      <c r="T330" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A331" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.708333333292</v>
+      </c>
+      <c r="B331" t="s">
+        <v>339</v>
+      </c>
+      <c r="C331" t="s">
+        <v>336</v>
+      </c>
+      <c r="D331" t="s">
+        <v>339</v>
+      </c>
+      <c r="E331" t="s">
+        <v>342</v>
+      </c>
+      <c r="F331" t="s">
+        <v>342</v>
+      </c>
+      <c r="G331" t="s">
+        <v>330</v>
+      </c>
+      <c r="H331" t="s">
+        <v>330</v>
+      </c>
+      <c r="I331" t="s">
+        <v>330</v>
+      </c>
+      <c r="J331" t="s">
+        <v>334</v>
+      </c>
+      <c r="K331" t="s">
+        <v>335</v>
+      </c>
+      <c r="L331" t="s">
+        <v>335</v>
+      </c>
+      <c r="M331" t="s">
+        <v>346</v>
+      </c>
+      <c r="N331" t="s">
+        <v>347</v>
+      </c>
+      <c r="O331" t="s">
+        <v>348</v>
+      </c>
+      <c r="P331" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>352</v>
+      </c>
+      <c r="R331" t="s">
+        <v>353</v>
+      </c>
+      <c r="S331" t="s">
+        <v>354</v>
+      </c>
+      <c r="T331" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A332" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.749999999956</v>
+      </c>
+      <c r="B332" t="s">
+        <v>339</v>
+      </c>
+      <c r="C332" t="s">
+        <v>336</v>
+      </c>
+      <c r="D332" t="s">
+        <v>339</v>
+      </c>
+      <c r="E332" t="s">
+        <v>342</v>
+      </c>
+      <c r="F332" t="s">
+        <v>342</v>
+      </c>
+      <c r="G332" t="s">
+        <v>330</v>
+      </c>
+      <c r="H332" t="s">
+        <v>330</v>
+      </c>
+      <c r="I332" t="s">
+        <v>330</v>
+      </c>
+      <c r="J332" t="s">
+        <v>334</v>
+      </c>
+      <c r="K332" t="s">
+        <v>335</v>
+      </c>
+      <c r="L332" t="s">
+        <v>335</v>
+      </c>
+      <c r="M332" t="s">
+        <v>346</v>
+      </c>
+      <c r="N332" t="s">
+        <v>347</v>
+      </c>
+      <c r="O332" t="s">
+        <v>348</v>
+      </c>
+      <c r="P332" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>352</v>
+      </c>
+      <c r="R332" t="s">
+        <v>353</v>
+      </c>
+      <c r="S332" t="s">
+        <v>354</v>
+      </c>
+      <c r="T332" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A333" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.791666666621</v>
+      </c>
+      <c r="B333" t="s">
+        <v>339</v>
+      </c>
+      <c r="C333" t="s">
+        <v>336</v>
+      </c>
+      <c r="D333" t="s">
+        <v>339</v>
+      </c>
+      <c r="E333" t="s">
+        <v>342</v>
+      </c>
+      <c r="F333" t="s">
+        <v>342</v>
+      </c>
+      <c r="G333" t="s">
+        <v>330</v>
+      </c>
+      <c r="H333" t="s">
+        <v>330</v>
+      </c>
+      <c r="I333" t="s">
+        <v>330</v>
+      </c>
+      <c r="J333" t="s">
+        <v>334</v>
+      </c>
+      <c r="K333" t="s">
+        <v>335</v>
+      </c>
+      <c r="L333" t="s">
+        <v>335</v>
+      </c>
+      <c r="M333" t="s">
+        <v>346</v>
+      </c>
+      <c r="N333" t="s">
+        <v>347</v>
+      </c>
+      <c r="O333" t="s">
+        <v>348</v>
+      </c>
+      <c r="P333" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>352</v>
+      </c>
+      <c r="R333" t="s">
+        <v>353</v>
+      </c>
+      <c r="S333" t="s">
+        <v>354</v>
+      </c>
+      <c r="T333" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A334" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.833333333285</v>
+      </c>
+      <c r="B334" t="s">
+        <v>339</v>
+      </c>
+      <c r="C334" t="s">
+        <v>336</v>
+      </c>
+      <c r="D334" t="s">
+        <v>339</v>
+      </c>
+      <c r="E334" t="s">
+        <v>342</v>
+      </c>
+      <c r="F334" t="s">
+        <v>342</v>
+      </c>
+      <c r="G334" t="s">
+        <v>330</v>
+      </c>
+      <c r="H334" t="s">
+        <v>330</v>
+      </c>
+      <c r="I334" t="s">
+        <v>330</v>
+      </c>
+      <c r="J334" t="s">
+        <v>334</v>
+      </c>
+      <c r="K334" t="s">
+        <v>335</v>
+      </c>
+      <c r="L334" t="s">
+        <v>335</v>
+      </c>
+      <c r="M334" t="s">
+        <v>346</v>
+      </c>
+      <c r="N334" t="s">
+        <v>347</v>
+      </c>
+      <c r="O334" t="s">
+        <v>348</v>
+      </c>
+      <c r="P334" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>352</v>
+      </c>
+      <c r="R334" t="s">
+        <v>353</v>
+      </c>
+      <c r="S334" t="s">
+        <v>354</v>
+      </c>
+      <c r="T334" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A335" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.874999999949</v>
+      </c>
+      <c r="B335" t="s">
+        <v>339</v>
+      </c>
+      <c r="C335" t="s">
+        <v>336</v>
+      </c>
+      <c r="D335" t="s">
+        <v>339</v>
+      </c>
+      <c r="E335" t="s">
+        <v>342</v>
+      </c>
+      <c r="F335" t="s">
+        <v>342</v>
+      </c>
+      <c r="G335" t="s">
+        <v>330</v>
+      </c>
+      <c r="H335" t="s">
+        <v>330</v>
+      </c>
+      <c r="I335" t="s">
+        <v>330</v>
+      </c>
+      <c r="J335" t="s">
+        <v>334</v>
+      </c>
+      <c r="K335" t="s">
+        <v>335</v>
+      </c>
+      <c r="L335" t="s">
+        <v>335</v>
+      </c>
+      <c r="M335" t="s">
+        <v>346</v>
+      </c>
+      <c r="N335" t="s">
+        <v>347</v>
+      </c>
+      <c r="O335" t="s">
+        <v>348</v>
+      </c>
+      <c r="P335" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>352</v>
+      </c>
+      <c r="R335" t="s">
+        <v>353</v>
+      </c>
+      <c r="S335" t="s">
+        <v>354</v>
+      </c>
+      <c r="T335" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A336" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.916666666613</v>
+      </c>
+      <c r="B336" t="s">
+        <v>339</v>
+      </c>
+      <c r="C336" t="s">
+        <v>336</v>
+      </c>
+      <c r="D336" t="s">
+        <v>339</v>
+      </c>
+      <c r="E336" t="s">
+        <v>342</v>
+      </c>
+      <c r="F336" t="s">
+        <v>342</v>
+      </c>
+      <c r="G336" t="s">
+        <v>330</v>
+      </c>
+      <c r="H336" t="s">
+        <v>330</v>
+      </c>
+      <c r="I336" t="s">
+        <v>330</v>
+      </c>
+      <c r="J336" t="s">
+        <v>334</v>
+      </c>
+      <c r="K336" t="s">
+        <v>335</v>
+      </c>
+      <c r="L336" t="s">
+        <v>335</v>
+      </c>
+      <c r="M336" t="s">
+        <v>346</v>
+      </c>
+      <c r="N336" t="s">
+        <v>347</v>
+      </c>
+      <c r="O336" t="s">
+        <v>348</v>
+      </c>
+      <c r="P336" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>352</v>
+      </c>
+      <c r="R336" t="s">
+        <v>353</v>
+      </c>
+      <c r="S336" t="s">
+        <v>354</v>
+      </c>
+      <c r="T336" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A337" s="17">
+        <f t="shared" si="9"/>
+        <v>43561.958333333278</v>
+      </c>
+      <c r="B337" t="s">
+        <v>339</v>
+      </c>
+      <c r="C337" t="s">
+        <v>336</v>
+      </c>
+      <c r="D337" t="s">
+        <v>339</v>
+      </c>
+      <c r="E337" t="s">
+        <v>342</v>
+      </c>
+      <c r="F337" t="s">
+        <v>342</v>
+      </c>
+      <c r="G337" t="s">
+        <v>330</v>
+      </c>
+      <c r="H337" t="s">
+        <v>330</v>
+      </c>
+      <c r="I337" t="s">
+        <v>330</v>
+      </c>
+      <c r="J337" t="s">
+        <v>334</v>
+      </c>
+      <c r="K337" t="s">
+        <v>335</v>
+      </c>
+      <c r="L337" t="s">
+        <v>335</v>
+      </c>
+      <c r="M337" t="s">
+        <v>346</v>
+      </c>
+      <c r="N337" t="s">
+        <v>347</v>
+      </c>
+      <c r="O337" t="s">
+        <v>348</v>
+      </c>
+      <c r="P337" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>352</v>
+      </c>
+      <c r="R337" t="s">
+        <v>353</v>
+      </c>
+      <c r="S337" t="s">
+        <v>354</v>
+      </c>
+      <c r="T337" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A338" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>

--- a/data_sets/Power/ODO_INPUT.xlsx
+++ b/data_sets/Power/ODO_INPUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hlh/Dropbox/Work/Collaborations/Harsha/Networked_Microgrid/ODO/data_sets/Power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25D7F1C-3C0D-A84D-9370-5CCF241F9991}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76BAD9C-EBF3-8144-8394-82801D7A9DBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="938" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9054" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9061" uniqueCount="370">
   <si>
     <t>January</t>
   </si>
@@ -1130,6 +1130,9 @@
     <t>branch_1_2</t>
   </si>
   <si>
+    <t>branch_2_3</t>
+  </si>
+  <si>
     <t>load_670a_phase_2</t>
   </si>
   <si>
@@ -1146,6 +1149,21 @@
   </si>
   <si>
     <t>nb hours (should be less than 288 hours = 12 days)</t>
+  </si>
+  <si>
+    <t>branch_7_8</t>
+  </si>
+  <si>
+    <t>branch_3_4</t>
+  </si>
+  <si>
+    <t>branch_6_16</t>
+  </si>
+  <si>
+    <t>branch_2_6</t>
+  </si>
+  <si>
+    <t>branch_2_7</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1503,6 +1521,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1686,7 +1710,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1713,6 +1737,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1760,7 +1785,47 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1881,6 +1946,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -1904,8 +1989,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2293,8 +2378,8 @@
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4451,7 +4536,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9538,17 +9623,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="XFD5">
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:E36">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D18">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10505,18 +10590,21 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DF613-129E-417F-876D-4B00A3A21EFA}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
@@ -10526,20 +10614,20 @@
     <col min="26" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>275</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>362</v>
       </c>
       <c r="B2" s="19">
         <v>43466.25</v>
@@ -10556,14 +10644,45 @@
       <c r="F2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="D2:F2 D3:E3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="D3:E3 D2">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10645,13 +10764,13 @@
         <v>350</v>
       </c>
       <c r="R1" t="s">
+        <v>360</v>
+      </c>
+      <c r="S1" t="s">
         <v>359</v>
       </c>
-      <c r="S1" t="s">
-        <v>358</v>
-      </c>
       <c r="T1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -31824,8 +31943,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I897"/>
   <sheetViews>
-    <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A392" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="J395" sqref="J395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43256,10 +43375,10 @@
         <v>0</v>
       </c>
       <c r="G394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394">
         <v>0</v>
@@ -43285,10 +43404,10 @@
         <v>0</v>
       </c>
       <c r="G395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395">
         <v>0</v>
@@ -57854,7 +57973,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:I897">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59503,7 +59622,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F81">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59516,7 +59635,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -60603,12 +60722,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:U21 R2:U17">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q17">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61708,12 +61827,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:U21 R2:U17">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62086,7 +62205,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N3" sqref="A3:N3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -62152,7 +62271,7 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2">
         <v>6440</v>
@@ -62197,7 +62316,7 @@
         <v>41</v>
       </c>
       <c r="C3">
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2">
         <v>5761.407408</v>

--- a/data_sets/Power/ODO_INPUT.xlsx
+++ b/data_sets/Power/ODO_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hlh/Dropbox/Work/Collaborations/Harsha/Networked_Microgrid/ODO/data_sets/Power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76BAD9C-EBF3-8144-8394-82801D7A9DBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E511DFEB-E5A6-4646-A187-F9CAAD118CF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="938" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2500" windowWidth="28800" windowHeight="16080" tabRatio="938" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunSettings" sheetId="107" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9061" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9062" uniqueCount="372">
   <si>
     <t>January</t>
   </si>
@@ -1164,6 +1164,12 @@
   </si>
   <si>
     <t>branch_2_7</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1e-5,0,0,0,1e-5,0,0,0,1e-5</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2385,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2448,19 +2454,19 @@
         <v>174</v>
       </c>
       <c r="C3" s="4">
-        <v>8500</v>
+        <v>850</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="F3">
-        <v>34.918144280588599</v>
-      </c>
-      <c r="G3" s="13">
-        <v>2</v>
+        <v>0.35</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -10592,7 +10598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937DF613-129E-417F-876D-4B00A3A21EFA}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -31943,8 +31949,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I897"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="J395" sqref="J395"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38503,10 +38509,10 @@
         <v>0</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -38532,10 +38538,10 @@
         <v>0</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -43375,7 +43381,7 @@
         <v>0</v>
       </c>
       <c r="G394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H394">
         <v>1</v>
@@ -43404,7 +43410,7 @@
         <v>0</v>
       </c>
       <c r="G395">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H395">
         <v>0</v>
@@ -43433,7 +43439,7 @@
         <v>0</v>
       </c>
       <c r="G396">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H396">
         <v>0</v>
@@ -44999,7 +45005,7 @@
         <v>0</v>
       </c>
       <c r="G450">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H450">
         <v>0</v>
@@ -45028,7 +45034,7 @@
         <v>0</v>
       </c>
       <c r="G451">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H451">
         <v>0</v>
@@ -45057,7 +45063,7 @@
         <v>0</v>
       </c>
       <c r="G452">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H452">
         <v>0</v>
@@ -62205,7 +62211,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -62271,10 +62277,10 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="2">
-        <v>6440</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
@@ -62316,7 +62322,7 @@
         <v>41</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>5761.407408</v>
